--- a/DDAf_2024_Tableau_annexe_Tab25.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab25.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D71BCDE2-373C-4C7F-8B35-15E8E924C860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8FEE14C-5008-4055-A62A-9B0DBCB1F4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E504CB22-A714-4D42-9DE5-AC3C77B141D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{89E7E3AA-4E46-4D00-9C71-E0220D9A1965}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
   <si>
     <t>Tableau 25 : Émissions de GES par secteur</t>
   </si>
@@ -74,7 +74,7 @@
     <t>Émissions d'équivalent CO2 (kt) de la consommation finale non spécifiée ailleurs, 2020</t>
   </si>
   <si>
-    <t>Émissions d'équivalent CO2 (kt) des routes, 2020</t>
+    <t>Émissions d'équivalent CO2 (kt) provenant des routes (incluses dans les transports), 2020</t>
   </si>
   <si>
     <t>Émissions d'équivalent CO2 (kt) de la production d'électricité et de chaleur, 2020</t>
@@ -548,13 +548,10 @@
     <t>Les conditions générales de l'Agence internationale de l'énergie (AIE) s'appliquent à l'utilisation de ces données. Pour plus d'informations, le contact des statistiques de l'AIE peut être contacté à l'adresse emissions@iea.org.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2024-fr.</t>
   </si>
   <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
@@ -575,26 +572,13 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -607,6 +591,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -680,6 +672,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -688,10 +687,23 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -706,18 +718,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFD42C2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -727,13 +739,24 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -742,17 +765,26 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -760,16 +792,34 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,176 +827,282 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1262,4195 +1418,4194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DDF1F2-A45A-4E43-A722-C611A260B1DF}">
-  <sheetPr codeName="Sheet31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3ABF61-BD78-425D-BFB0-A2611BF8F034}">
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="13">
         <v>16939.3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="14">
         <v>1226</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>1342.4</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="16">
         <v>5752.5</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="15">
         <v>3256.2</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="15">
         <v>1417.9</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="15">
         <v>14.4</v>
       </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
         <v>10.4</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="15">
         <v>5711.3</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="13">
         <v>3919.4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="18">
         <v>5995.6</v>
       </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
         <v>575.9</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="20">
         <v>2187.9</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="20">
         <v>183.7</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="20">
         <v>49.9</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="20">
         <v>32.4</v>
       </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
         <v>2.9</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="20">
         <v>2164.1999999999998</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="18">
         <v>2962.9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="22">
         <v>1298.3</v>
       </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
         <v>273.5</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="24">
         <v>729.2</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="24">
         <v>105.1</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="24">
         <v>47.1</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="24">
         <v>57.5</v>
       </c>
-      <c r="J5" s="17">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17">
-        <v>0</v>
-      </c>
-      <c r="L5" s="17">
+      <c r="J5" s="24">
+        <v>0</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0</v>
+      </c>
+      <c r="L5" s="24">
         <v>729.2</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="22">
         <v>85.9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="22">
         <v>2312</v>
       </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
         <v>1655.5</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="24">
         <v>538.1</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="24">
         <v>93.5</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="24">
         <v>24.8</v>
       </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="17">
+      <c r="K6" s="24">
+        <v>0</v>
+      </c>
+      <c r="L6" s="24">
         <v>538</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="22">
         <v>1538.4</v>
       </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
         <v>165.2</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="24">
         <v>1158.5</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="24">
         <v>10.6</v>
       </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="H7" s="24">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="24">
         <v>58.6</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="24">
         <v>1154.8</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="22">
         <v>145.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="22">
         <v>7754.1</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="23">
         <v>274.89999999999998</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="24">
         <v>720.7</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="24">
         <v>3347.8</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="24">
         <v>1824.3</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="24">
         <v>61.1</v>
       </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0</v>
+      </c>
+      <c r="K8" s="24">
         <v>33.700000000000003</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="24">
         <v>3221.6</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="22">
         <v>1491.6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="22">
         <v>3597.3</v>
       </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
         <v>273.60000000000002</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="24">
         <v>1909.8</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="24">
         <v>61.1</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="24">
         <v>5.7</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="24">
         <v>978.6</v>
       </c>
-      <c r="J9" s="17">
-        <v>0</v>
-      </c>
-      <c r="K9" s="17">
+      <c r="J9" s="24">
+        <v>0</v>
+      </c>
+      <c r="K9" s="24">
         <v>282.10000000000002</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="24">
         <v>1814.7</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="22">
         <v>86.3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="22">
         <v>393113.2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="23">
         <v>55003.4</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="24">
         <v>48565</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="24">
         <v>46161.9</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="24">
         <v>13590.1</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="24">
         <v>5284.4</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="24">
         <v>4048.9</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="24">
         <v>188.3</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="24">
         <v>2351.9</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="24">
         <v>42366.5</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="22">
         <v>217919.3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="22">
         <v>8547.4</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="19">
         <v>20.3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="20">
         <v>1412.5</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="20">
         <v>2546.6999999999998</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="20">
         <v>1717.7</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="20">
         <v>71.2</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="20">
         <v>120.4</v>
       </c>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
+      <c r="J11" s="20">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
         <v>247</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="20">
         <v>2546.1</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="22">
         <v>2411.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="26">
         <v>10646.8</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="27">
         <v>85.9</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="28">
         <v>1030.7</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="28">
         <v>2139.6</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="28">
         <v>2768.7</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="28">
         <v>0.9</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="28">
         <v>458.1</v>
       </c>
-      <c r="J12" s="17">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17">
+      <c r="J12" s="28">
+        <v>0</v>
+      </c>
+      <c r="K12" s="28">
         <v>296.7</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="28">
         <v>2005.8</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="26">
         <v>3866.2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="31">
         <v>451742.4</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="32">
         <v>56610.5</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="33">
         <v>56015</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="34">
         <v>66472</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="33">
         <v>23611</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="33">
         <v>6963</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="33">
         <v>5710.3</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="33">
         <v>188.3</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="34">
         <v>3283.3</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="33">
         <v>62252.2</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="31">
         <v>232889.2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="36">
         <v>710.5</v>
       </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="D14" s="37">
+        <v>0</v>
+      </c>
+      <c r="E14" s="38">
         <v>28.3</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="24">
         <v>568.4</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="38">
         <v>21.9</v>
       </c>
-      <c r="H14" s="17">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17" t="s">
+      <c r="H14" s="38">
+        <v>0</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0</v>
+      </c>
+      <c r="J14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="17">
-        <v>0</v>
-      </c>
-      <c r="L14" s="17">
+      <c r="K14" s="24">
+        <v>0</v>
+      </c>
+      <c r="L14" s="38">
         <v>568.4</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="36">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="22">
         <v>9083.6</v>
       </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
         <v>261.5</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="24">
         <v>3509.9</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="24">
         <v>2299.1</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="24">
         <v>416.1</v>
       </c>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
-        <v>0</v>
-      </c>
-      <c r="K15" s="17">
+      <c r="I15" s="24">
+        <v>0</v>
+      </c>
+      <c r="J15" s="24">
+        <v>0</v>
+      </c>
+      <c r="K15" s="24">
         <v>116.8</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="24">
         <v>3499.5</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="22">
         <v>2480.3000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="22">
         <v>236.6</v>
       </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D16" s="23">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
         <v>5.9</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="24">
         <v>216</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="24">
         <v>13.7</v>
       </c>
-      <c r="H16" s="17">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17" t="s">
+      <c r="H16" s="24">
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="17">
-        <v>0</v>
-      </c>
-      <c r="L16" s="17">
+      <c r="K16" s="24">
+        <v>0</v>
+      </c>
+      <c r="L16" s="24">
         <v>216</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="22">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="40">
         <v>1432.9</v>
       </c>
-      <c r="D17" s="24">
-        <v>0</v>
-      </c>
-      <c r="E17" s="24">
+      <c r="D17" s="41">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
         <v>17.8</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="16">
         <v>1092</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="16">
         <v>130.6</v>
       </c>
-      <c r="H17" s="24">
-        <v>0</v>
-      </c>
-      <c r="I17" s="24">
-        <v>0</v>
-      </c>
-      <c r="J17" s="24" t="s">
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="24">
-        <v>0</v>
-      </c>
-      <c r="L17" s="24">
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
         <v>1060.9000000000001</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="40">
         <v>193.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="40">
         <v>4029.4</v>
       </c>
-      <c r="D18" s="24">
-        <v>0</v>
-      </c>
-      <c r="E18" s="24">
+      <c r="D18" s="41">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
         <v>102.3</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="16">
         <v>1177.9000000000001</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="16">
         <v>430</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="16">
         <v>91.3</v>
       </c>
-      <c r="I18" s="24">
-        <v>0</v>
-      </c>
-      <c r="J18" s="24">
-        <v>0</v>
-      </c>
-      <c r="K18" s="24">
-        <v>0</v>
-      </c>
-      <c r="L18" s="24">
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
         <v>1071.7</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="40">
         <v>2227.8000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="22">
         <v>8602.6</v>
       </c>
-      <c r="D19" s="14">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="20">
         <v>32.6</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="20">
         <v>2377.6</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="20">
         <v>6104.5</v>
       </c>
-      <c r="H19" s="14">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="H19" s="20">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
         <v>75.099999999999994</v>
       </c>
-      <c r="J19" s="14">
-        <v>0</v>
-      </c>
-      <c r="K19" s="14">
-        <v>0</v>
-      </c>
-      <c r="L19" s="14">
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20">
         <v>2068.3000000000002</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="22">
         <v>12.8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="40">
         <v>3826.6</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="41">
         <v>674.5</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="16">
         <v>2047</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="16">
         <v>443.4</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="16">
         <v>60.5</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="16">
         <v>42.7</v>
       </c>
-      <c r="I20" s="24">
-        <v>0</v>
-      </c>
-      <c r="J20" s="24">
-        <v>0</v>
-      </c>
-      <c r="K20" s="24">
-        <v>0</v>
-      </c>
-      <c r="L20" s="24">
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
         <v>427.6</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="40">
         <v>558.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="40">
         <v>3142.1</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="41">
         <v>255.1</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="16">
         <v>691.4</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="16">
         <v>195</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="16">
         <v>544</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="16">
         <v>39.299999999999997</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J21" s="24">
-        <v>0</v>
-      </c>
-      <c r="K21" s="24">
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
         <v>8.5</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="16">
         <v>188.2</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="40">
         <v>1406.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="26">
         <v>141.1</v>
       </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="E22" s="28">
         <v>33.799999999999997</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="28">
         <v>34.5</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="28">
         <v>14.5</v>
       </c>
-      <c r="H22" s="17">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0</v>
-      </c>
-      <c r="J22" s="17" t="s">
+      <c r="H22" s="28">
+        <v>0</v>
+      </c>
+      <c r="I22" s="28">
+        <v>0</v>
+      </c>
+      <c r="J22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="17">
-        <v>0</v>
-      </c>
-      <c r="L22" s="17">
+      <c r="K22" s="28">
+        <v>0</v>
+      </c>
+      <c r="L22" s="28">
         <v>30.6</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="26">
         <v>58.4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="31">
         <v>31205.4</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="32">
         <v>929.6</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="33">
         <v>3220.6</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="34">
         <v>9614.7000000000007</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="33">
         <v>9618.7999999999993</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="33">
         <v>589.4</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="33">
         <v>77.400000000000006</v>
       </c>
-      <c r="J23" s="21">
-        <v>0</v>
-      </c>
-      <c r="K23" s="21">
+      <c r="J23" s="33">
+        <v>0</v>
+      </c>
+      <c r="K23" s="34">
         <v>125.3</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="33">
         <v>9131.2000000000007</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="31">
         <v>7031</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="36">
         <v>328.3</v>
       </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="D24" s="37">
+        <v>0</v>
+      </c>
+      <c r="E24" s="38">
         <v>0.3</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="24">
         <v>185.8</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="38">
         <v>40.1</v>
       </c>
-      <c r="H24" s="17">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17" t="s">
+      <c r="H24" s="38">
+        <v>0</v>
+      </c>
+      <c r="I24" s="38">
+        <v>0</v>
+      </c>
+      <c r="J24" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="24">
         <v>1.9</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="38">
         <v>152</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="36">
         <v>100.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="22">
         <v>334.7</v>
       </c>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
         <v>23.6</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="24">
         <v>138.6</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="24">
         <v>49.2</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="24">
         <v>27.8</v>
       </c>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
-      <c r="J25" s="17" t="s">
+      <c r="I25" s="24">
+        <v>0</v>
+      </c>
+      <c r="J25" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="24">
         <v>47.4</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="24">
         <v>138.6</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="22">
         <v>47.4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="22">
         <v>771.4</v>
       </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
+      <c r="D26" s="23">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
         <v>22.2</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="24">
         <v>221.6</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="24">
         <v>195.8</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="24">
         <v>19.2</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="24">
         <v>2.8</v>
       </c>
-      <c r="J26" s="17">
-        <v>0</v>
-      </c>
-      <c r="K26" s="17">
-        <v>0</v>
-      </c>
-      <c r="L26" s="17">
+      <c r="J26" s="24">
+        <v>0</v>
+      </c>
+      <c r="K26" s="24">
+        <v>0</v>
+      </c>
+      <c r="L26" s="24">
         <v>219.3</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="22">
         <v>309.7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="22">
         <v>27909.3</v>
       </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="D27" s="23">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24">
         <v>5320</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="24">
         <v>7559.8</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="24">
         <v>13507.8</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="24">
         <v>356.6</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="24">
         <v>580.29999999999995</v>
       </c>
-      <c r="J27" s="17">
-        <v>0</v>
-      </c>
-      <c r="K27" s="17">
+      <c r="J27" s="24">
+        <v>0</v>
+      </c>
+      <c r="K27" s="24">
         <v>580.29999999999995</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="24">
         <v>7547</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="22">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="22">
         <v>20061.400000000001</v>
       </c>
-      <c r="D28" s="17">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17">
+      <c r="D28" s="23">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24">
         <v>2720.3</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="24">
         <v>10655.1</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="24">
         <v>5213.7</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="24">
         <v>582.4</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="24">
         <v>113.5</v>
       </c>
-      <c r="J28" s="17">
-        <v>0</v>
-      </c>
-      <c r="K28" s="17">
+      <c r="J28" s="24">
+        <v>0</v>
+      </c>
+      <c r="K28" s="24">
         <v>61.7</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="24">
         <v>10310</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="22">
         <v>714.8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="22">
         <v>4463.3999999999996</v>
       </c>
-      <c r="D29" s="17">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
+      <c r="D29" s="23">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
         <v>309.5</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="24">
         <v>1217.5999999999999</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="24">
         <v>1209.8</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="24">
         <v>547</v>
       </c>
-      <c r="I29" s="17">
-        <v>0</v>
-      </c>
-      <c r="J29" s="17">
-        <v>0</v>
-      </c>
-      <c r="K29" s="17">
+      <c r="I29" s="24">
+        <v>0</v>
+      </c>
+      <c r="J29" s="24">
+        <v>0</v>
+      </c>
+      <c r="K29" s="24">
         <v>243.4</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="24">
         <v>1133.0999999999999</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="22">
         <v>936.1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="22">
         <v>3771.3</v>
       </c>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
+      <c r="D30" s="23">
+        <v>0</v>
+      </c>
+      <c r="E30" s="24">
         <v>317.8</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="24">
         <v>1038.4000000000001</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="24">
         <v>150.19999999999999</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="24">
         <v>47</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="24">
         <v>6.1</v>
       </c>
-      <c r="J30" s="17">
-        <v>0</v>
-      </c>
-      <c r="K30" s="17">
+      <c r="J30" s="24">
+        <v>0</v>
+      </c>
+      <c r="K30" s="24">
         <v>0.7</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="24">
         <v>993.7</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="22">
         <v>2211.1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="22">
         <v>2146.1</v>
       </c>
-      <c r="D31" s="17">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
+      <c r="D31" s="23">
+        <v>0</v>
+      </c>
+      <c r="E31" s="24">
         <v>294.7</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="24">
         <v>595.9</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="24">
         <v>935</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="24">
         <v>88.8</v>
       </c>
-      <c r="I31" s="17">
-        <v>0</v>
-      </c>
-      <c r="J31" s="17">
-        <v>0</v>
-      </c>
-      <c r="K31" s="17">
+      <c r="I31" s="24">
+        <v>0</v>
+      </c>
+      <c r="J31" s="24">
+        <v>0</v>
+      </c>
+      <c r="K31" s="24">
         <v>12.5</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="24">
         <v>595.9</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="22">
         <v>219.3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="22">
         <v>598.79999999999995</v>
       </c>
-      <c r="D32" s="17">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
+      <c r="D32" s="23">
+        <v>0</v>
+      </c>
+      <c r="E32" s="24">
         <v>3</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="24">
         <v>172.3</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="24">
         <v>13.1</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="24">
         <v>3.8</v>
       </c>
-      <c r="I32" s="17">
-        <v>0</v>
-      </c>
-      <c r="J32" s="17" t="s">
+      <c r="I32" s="24">
+        <v>0</v>
+      </c>
+      <c r="J32" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="24">
         <v>41.7</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="24">
         <v>151.80000000000001</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="22">
         <v>364.4</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="22">
         <v>660.4</v>
       </c>
-      <c r="D33" s="17">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
+      <c r="D33" s="23">
+        <v>0</v>
+      </c>
+      <c r="E33" s="24">
         <v>80.099999999999994</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="24">
         <v>142.19999999999999</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="24">
         <v>123.3</v>
       </c>
-      <c r="H33" s="17">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17" t="s">
+      <c r="H33" s="24">
+        <v>0</v>
+      </c>
+      <c r="I33" s="24">
+        <v>0</v>
+      </c>
+      <c r="J33" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="17">
-        <v>0</v>
-      </c>
-      <c r="L33" s="17">
+      <c r="K33" s="24">
+        <v>0</v>
+      </c>
+      <c r="L33" s="24">
         <v>142.19999999999999</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M33" s="22">
         <v>315.8</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="40">
         <v>1830.7</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="41">
         <v>238</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="16">
         <v>29.4</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="16">
         <v>917.5</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="16">
         <v>80</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="16">
         <v>12.7</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="16">
         <v>81.8</v>
       </c>
-      <c r="J34" s="24">
-        <v>0</v>
-      </c>
-      <c r="K34" s="24">
-        <v>0</v>
-      </c>
-      <c r="L34" s="24">
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
         <v>908.4</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="40">
         <v>471.3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="22">
         <v>21184</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="23">
         <v>139.69999999999999</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="24">
         <v>1567.8</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="24">
         <v>10629.8</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="24">
         <v>2317</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="24">
         <v>924.9</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="24">
         <v>235.4</v>
       </c>
-      <c r="J35" s="17">
-        <v>0</v>
-      </c>
-      <c r="K35" s="17">
+      <c r="J35" s="24">
+        <v>0</v>
+      </c>
+      <c r="K35" s="24">
         <v>61.4</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="24">
         <v>10443</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="22">
         <v>5308.1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="22">
         <v>17709.400000000001</v>
       </c>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
+      <c r="D36" s="23">
+        <v>0</v>
+      </c>
+      <c r="E36" s="24">
         <v>2203.1</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="24">
         <v>6775.1</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="24">
         <v>5432.1</v>
       </c>
-      <c r="H36" s="17">
-        <v>0</v>
-      </c>
-      <c r="I36" s="17">
+      <c r="H36" s="24">
+        <v>0</v>
+      </c>
+      <c r="I36" s="24">
         <v>558.70000000000005</v>
       </c>
-      <c r="J36" s="17">
-        <v>0</v>
-      </c>
-      <c r="K36" s="17">
+      <c r="J36" s="24">
+        <v>0</v>
+      </c>
+      <c r="K36" s="24">
         <v>68.599999999999994</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="24">
         <v>6706.4</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="22">
         <v>2671.7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="26">
         <v>8096.9</v>
       </c>
-      <c r="D37" s="17">
-        <v>0</v>
-      </c>
-      <c r="E37" s="17">
+      <c r="D37" s="27">
+        <v>0</v>
+      </c>
+      <c r="E37" s="28">
         <v>1424.2</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="28">
         <v>3487.5</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="28">
         <v>2472.1</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="28">
         <v>158.19999999999999</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="28">
         <v>390</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="28">
         <v>107</v>
       </c>
-      <c r="K37" s="17">
-        <v>0</v>
-      </c>
-      <c r="L37" s="17">
+      <c r="K37" s="28">
+        <v>0</v>
+      </c>
+      <c r="L37" s="28">
         <v>3253.1</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="26">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="31">
         <v>109866.1</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="32">
         <v>377.7</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="33">
         <v>14316</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="34">
         <v>43737.2</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="33">
         <v>31739.200000000001</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="33">
         <v>2768.4</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="33">
         <v>1968.6</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="33">
         <v>107</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="34">
         <v>1119.5999999999999</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="33">
         <v>42694.5</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38" s="31">
         <v>13732.6</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="13">
         <v>135599.1</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="14">
         <v>10632.2</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="15">
         <v>13308.3</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="16">
         <v>41367.599999999999</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="15">
         <v>26282.2</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="15">
         <v>662.3</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="15">
         <v>158.80000000000001</v>
       </c>
-      <c r="J39" s="24">
-        <v>0</v>
-      </c>
-      <c r="K39" s="24">
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
         <v>4620</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="15">
         <v>39106.300000000003</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="13">
         <v>38567.800000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="22">
         <v>190307.8</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="23">
         <v>14993.8</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="24">
         <v>29860.3</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="24">
         <v>52829.2</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="24">
         <v>16494.7</v>
       </c>
-      <c r="H40" s="17">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17">
+      <c r="H40" s="24">
+        <v>0</v>
+      </c>
+      <c r="I40" s="24">
         <v>2507.9</v>
       </c>
-      <c r="J40" s="17">
-        <v>0</v>
-      </c>
-      <c r="K40" s="17">
+      <c r="J40" s="24">
+        <v>0</v>
+      </c>
+      <c r="K40" s="24">
         <v>105</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="24">
         <v>51145.5</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M40" s="22">
         <v>73516.899999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="43">
         <v>39808.5</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="41">
         <v>958</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="16">
         <v>1823.4</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="16">
         <v>17234.3</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="16">
         <v>1150.5</v>
       </c>
-      <c r="H41" s="24">
-        <v>0</v>
-      </c>
-      <c r="I41" s="24">
-        <v>0</v>
-      </c>
-      <c r="J41" s="24">
-        <v>0</v>
-      </c>
-      <c r="K41" s="24">
-        <v>0</v>
-      </c>
-      <c r="L41" s="24">
+      <c r="H41" s="16">
+        <v>0</v>
+      </c>
+      <c r="I41" s="16">
+        <v>0</v>
+      </c>
+      <c r="J41" s="16">
+        <v>0</v>
+      </c>
+      <c r="K41" s="16">
+        <v>0</v>
+      </c>
+      <c r="L41" s="16">
         <v>17188.099999999999</v>
       </c>
-      <c r="M41" s="23">
+      <c r="M41" s="43">
         <v>18642.099999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="43">
         <v>3847.3</v>
       </c>
-      <c r="D42" s="24">
-        <v>0</v>
-      </c>
-      <c r="E42" s="24">
+      <c r="D42" s="41">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16">
         <v>1004.2</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="16">
         <v>1701.8</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="16">
         <v>188.3</v>
       </c>
-      <c r="H42" s="24">
-        <v>0</v>
-      </c>
-      <c r="I42" s="24">
+      <c r="H42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
         <v>189.4</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="24">
-        <v>0</v>
-      </c>
-      <c r="L42" s="24">
+      <c r="K42" s="16">
+        <v>0</v>
+      </c>
+      <c r="L42" s="16">
         <v>1698.6</v>
       </c>
-      <c r="M42" s="23">
+      <c r="M42" s="43">
         <v>762.1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="22">
         <v>63151.199999999997</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="23">
         <v>12.8</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="24">
         <v>6725.5</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="24">
         <v>16962.099999999999</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="24">
         <v>7617.7</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="24">
         <v>670.1</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="24">
         <v>2652.5</v>
       </c>
-      <c r="J43" s="17">
-        <v>0</v>
-      </c>
-      <c r="K43" s="17">
-        <v>0</v>
-      </c>
-      <c r="L43" s="17">
+      <c r="J43" s="24">
+        <v>0</v>
+      </c>
+      <c r="K43" s="24">
+        <v>0</v>
+      </c>
+      <c r="L43" s="24">
         <v>16883.400000000001</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M43" s="22">
         <v>28510.6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="26">
         <v>25658</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="27">
         <v>488.3</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="28">
         <v>4440.8999999999996</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="28">
         <v>7240.9</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="28">
         <v>2478</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="28">
         <v>655</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="28">
         <v>1186.2</v>
       </c>
-      <c r="J44" s="17">
-        <v>0</v>
-      </c>
-      <c r="K44" s="17">
-        <v>0</v>
-      </c>
-      <c r="L44" s="17">
+      <c r="J44" s="28">
+        <v>0</v>
+      </c>
+      <c r="K44" s="28">
+        <v>0</v>
+      </c>
+      <c r="L44" s="28">
         <v>6901.7</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="26">
         <v>9168.7999999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="31">
         <v>458371.9</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="32">
         <v>27085.1</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="33">
         <v>57162.6</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="44">
         <v>137335.9</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="33">
         <v>54211.4</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="33">
         <v>1987.4</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="33">
         <v>6694.8</v>
       </c>
-      <c r="J45" s="21">
-        <v>0</v>
-      </c>
-      <c r="K45" s="21">
+      <c r="J45" s="33">
+        <v>0</v>
+      </c>
+      <c r="K45" s="44">
         <v>4725</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="33">
         <v>132923.6</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="31">
         <v>169168.3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="36">
         <v>8491.9</v>
       </c>
-      <c r="D46" s="17">
-        <v>0</v>
-      </c>
-      <c r="E46" s="17">
+      <c r="D46" s="37">
+        <v>0</v>
+      </c>
+      <c r="E46" s="38">
         <v>527.70000000000005</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="24">
         <v>6340.5</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="38">
         <v>728.8</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="38">
         <v>327.10000000000002</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="38">
         <v>61.7</v>
       </c>
-      <c r="J46" s="17">
-        <v>0</v>
-      </c>
-      <c r="K46" s="17">
-        <v>0</v>
-      </c>
-      <c r="L46" s="17">
+      <c r="J46" s="38">
+        <v>0</v>
+      </c>
+      <c r="K46" s="24">
+        <v>0</v>
+      </c>
+      <c r="L46" s="38">
         <v>6340.5</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M46" s="36">
         <v>506.2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="22">
         <v>4608.3</v>
       </c>
-      <c r="D47" s="17">
-        <v>0</v>
-      </c>
-      <c r="E47" s="17">
+      <c r="D47" s="23">
+        <v>0</v>
+      </c>
+      <c r="E47" s="24">
         <v>1295.5</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="24">
         <v>2524.6</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="24">
         <v>378.7</v>
       </c>
-      <c r="H47" s="17">
-        <v>0</v>
-      </c>
-      <c r="I47" s="17">
-        <v>0</v>
-      </c>
-      <c r="J47" s="17" t="s">
+      <c r="H47" s="24">
+        <v>0</v>
+      </c>
+      <c r="I47" s="24">
+        <v>0</v>
+      </c>
+      <c r="J47" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="17">
-        <v>0</v>
-      </c>
-      <c r="L47" s="17">
+      <c r="K47" s="24">
+        <v>0</v>
+      </c>
+      <c r="L47" s="24">
         <v>2524.6999999999998</v>
       </c>
-      <c r="M47" s="16">
+      <c r="M47" s="22">
         <v>412.3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="43">
         <v>620.6</v>
       </c>
-      <c r="D48" s="24">
-        <v>0</v>
-      </c>
-      <c r="E48" s="24">
+      <c r="D48" s="41">
+        <v>0</v>
+      </c>
+      <c r="E48" s="16">
         <v>0.2</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="16">
         <v>287</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="16">
         <v>30.5</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="16">
         <v>19.5</v>
       </c>
-      <c r="I48" s="24">
-        <v>0</v>
-      </c>
-      <c r="J48" s="24" t="s">
+      <c r="I48" s="16">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K48" s="24">
-        <v>0</v>
-      </c>
-      <c r="L48" s="24">
+      <c r="K48" s="16">
+        <v>0</v>
+      </c>
+      <c r="L48" s="16">
         <v>220.5</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="43">
         <v>283.39999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="22">
         <v>12463.3</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="23">
         <v>502.7</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="24">
         <v>1268.4000000000001</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="24">
         <v>4269.8999999999996</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="24">
         <v>2372.3000000000002</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="24">
         <v>255.1</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="24">
         <v>234.1</v>
       </c>
-      <c r="J49" s="17">
-        <v>0</v>
-      </c>
-      <c r="K49" s="17">
-        <v>0</v>
-      </c>
-      <c r="L49" s="17">
+      <c r="J49" s="24">
+        <v>0</v>
+      </c>
+      <c r="K49" s="24">
+        <v>0</v>
+      </c>
+      <c r="L49" s="24">
         <v>4034.5</v>
       </c>
-      <c r="M49" s="16">
+      <c r="M49" s="22">
         <v>3560.8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="22">
         <v>611.5</v>
       </c>
-      <c r="D50" s="17">
-        <v>0</v>
-      </c>
-      <c r="E50" s="17">
+      <c r="D50" s="23">
+        <v>0</v>
+      </c>
+      <c r="E50" s="24">
         <v>137.9</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="24">
         <v>81.3</v>
       </c>
-      <c r="G50" s="17">
-        <v>0</v>
-      </c>
-      <c r="H50" s="17">
-        <v>0</v>
-      </c>
-      <c r="I50" s="17">
-        <v>0</v>
-      </c>
-      <c r="J50" s="17" t="s">
+      <c r="G50" s="24">
+        <v>0</v>
+      </c>
+      <c r="H50" s="24">
+        <v>0</v>
+      </c>
+      <c r="I50" s="24">
+        <v>0</v>
+      </c>
+      <c r="J50" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="24">
         <v>125.8</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="24">
         <v>81.3</v>
       </c>
-      <c r="M50" s="16">
+      <c r="M50" s="22">
         <v>264.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="18">
         <v>20099.099999999999</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="19">
         <v>92.8</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="20">
         <v>2118.5</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="20">
         <v>9423.9</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="20">
         <v>1476.4</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="20">
         <v>145.5</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="20">
         <v>230.6</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="20">
         <v>240</v>
       </c>
-      <c r="K51" s="14">
-        <v>0</v>
-      </c>
-      <c r="L51" s="14">
+      <c r="K51" s="20">
+        <v>0</v>
+      </c>
+      <c r="L51" s="20">
         <v>8778.6</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M51" s="18">
         <v>6371.5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="22">
         <v>4538.1000000000004</v>
       </c>
-      <c r="D52" s="17">
-        <v>0</v>
-      </c>
-      <c r="E52" s="17">
+      <c r="D52" s="23">
+        <v>0</v>
+      </c>
+      <c r="E52" s="24">
         <v>1840.3</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="24">
         <v>2064.4</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="24">
         <v>81.599999999999994</v>
       </c>
-      <c r="H52" s="17">
-        <v>0</v>
-      </c>
-      <c r="I52" s="17">
-        <v>0</v>
-      </c>
-      <c r="J52" s="17" t="s">
+      <c r="H52" s="24">
+        <v>0</v>
+      </c>
+      <c r="I52" s="24">
+        <v>0</v>
+      </c>
+      <c r="J52" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="24">
         <v>0.2</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="24">
         <v>2048.5</v>
       </c>
-      <c r="M52" s="16">
+      <c r="M52" s="22">
         <v>552.29999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="22">
         <v>329</v>
       </c>
-      <c r="D53" s="17">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17">
-        <v>0</v>
-      </c>
-      <c r="F53" s="17">
+      <c r="D53" s="23">
+        <v>0</v>
+      </c>
+      <c r="E53" s="24">
+        <v>0</v>
+      </c>
+      <c r="F53" s="24">
         <v>118.8</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="24">
         <v>32.9</v>
       </c>
-      <c r="H53" s="17">
-        <v>0</v>
-      </c>
-      <c r="I53" s="17">
-        <v>0</v>
-      </c>
-      <c r="J53" s="17" t="s">
+      <c r="H53" s="24">
+        <v>0</v>
+      </c>
+      <c r="I53" s="24">
+        <v>0</v>
+      </c>
+      <c r="J53" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="24">
         <v>113.9</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="24">
         <v>95.1</v>
       </c>
-      <c r="M53" s="16">
+      <c r="M53" s="22">
         <v>61.9</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="22">
         <v>1018.3</v>
       </c>
-      <c r="D54" s="17">
-        <v>0</v>
-      </c>
-      <c r="E54" s="17">
+      <c r="D54" s="23">
+        <v>0</v>
+      </c>
+      <c r="E54" s="24">
         <v>107.4</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="24">
         <v>622.4</v>
       </c>
-      <c r="G54" s="17">
-        <v>0</v>
-      </c>
-      <c r="H54" s="17">
+      <c r="G54" s="24">
+        <v>0</v>
+      </c>
+      <c r="H54" s="24">
         <v>15.8</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="24">
         <v>18.899999999999999</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="J54" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="24">
         <v>6.9</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="24">
         <v>598.1</v>
       </c>
-      <c r="M54" s="16">
+      <c r="M54" s="22">
         <v>246.3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="22">
         <v>3569.7</v>
       </c>
-      <c r="D55" s="17">
-        <v>0</v>
-      </c>
-      <c r="E55" s="17">
+      <c r="D55" s="23">
+        <v>0</v>
+      </c>
+      <c r="E55" s="24">
         <v>329.8</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="24">
         <v>1499.3</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="24">
         <v>118.3</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="24">
         <v>1</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="24">
         <v>79.599999999999994</v>
       </c>
-      <c r="J55" s="17" t="s">
+      <c r="J55" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="24">
         <v>76.400000000000006</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="24">
         <v>1209.4000000000001</v>
       </c>
-      <c r="M55" s="16">
+      <c r="M55" s="22">
         <v>1463.8</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="22">
         <v>3128.8</v>
       </c>
-      <c r="D56" s="17">
-        <v>0</v>
-      </c>
-      <c r="E56" s="17">
+      <c r="D56" s="23">
+        <v>0</v>
+      </c>
+      <c r="E56" s="24">
         <v>195.2</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="24">
         <v>1159.3</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="24">
         <v>1054.0999999999999</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="24">
         <v>73.3</v>
       </c>
-      <c r="I56" s="17">
-        <v>0</v>
-      </c>
-      <c r="J56" s="17">
-        <v>0</v>
-      </c>
-      <c r="K56" s="17">
-        <v>0</v>
-      </c>
-      <c r="L56" s="17">
+      <c r="I56" s="24">
+        <v>0</v>
+      </c>
+      <c r="J56" s="24">
+        <v>0</v>
+      </c>
+      <c r="K56" s="24">
+        <v>0</v>
+      </c>
+      <c r="L56" s="24">
         <v>1154.8</v>
       </c>
-      <c r="M56" s="16">
+      <c r="M56" s="22">
         <v>646.79999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="22">
         <v>128450.5</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="23">
         <v>11931.5</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="24">
         <v>7665.2</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="24">
         <v>52555.3</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="24">
         <v>41258.199999999997</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="24">
         <v>949</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="24">
         <v>14.3</v>
       </c>
-      <c r="J57" s="17">
-        <v>0</v>
-      </c>
-      <c r="K57" s="17">
+      <c r="J57" s="24">
+        <v>0</v>
+      </c>
+      <c r="K57" s="24">
         <v>527.5</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="24">
         <v>51621.5</v>
       </c>
-      <c r="M57" s="16">
+      <c r="M57" s="22">
         <v>13549.4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="22">
         <v>8402.6</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="23">
         <v>27.7</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="24">
         <v>1323.8</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="24">
         <v>2924.6</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="24">
         <v>855.5</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="24">
         <v>24</v>
       </c>
-      <c r="I58" s="17">
-        <v>0</v>
-      </c>
-      <c r="J58" s="17">
-        <v>0</v>
-      </c>
-      <c r="K58" s="17">
-        <v>0</v>
-      </c>
-      <c r="L58" s="17">
+      <c r="I58" s="24">
+        <v>0</v>
+      </c>
+      <c r="J58" s="24">
+        <v>0</v>
+      </c>
+      <c r="K58" s="24">
+        <v>0</v>
+      </c>
+      <c r="L58" s="24">
         <v>2731.8</v>
       </c>
-      <c r="M58" s="16">
+      <c r="M58" s="22">
         <v>3246.8</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="22">
         <v>1048</v>
       </c>
-      <c r="D59" s="17">
-        <v>0</v>
-      </c>
-      <c r="E59" s="17">
+      <c r="D59" s="23">
+        <v>0</v>
+      </c>
+      <c r="E59" s="24">
         <v>55.8</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="24">
         <v>672.2</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="24">
         <v>1.8</v>
       </c>
-      <c r="H59" s="17">
-        <v>0</v>
-      </c>
-      <c r="I59" s="17">
-        <v>0</v>
-      </c>
-      <c r="J59" s="17" t="s">
+      <c r="H59" s="24">
+        <v>0</v>
+      </c>
+      <c r="I59" s="24">
+        <v>0</v>
+      </c>
+      <c r="J59" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="24">
         <v>306.39999999999998</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="24">
         <v>672.2</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M59" s="22">
         <v>7.3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="46">
         <v>2111.1999999999998</v>
       </c>
-      <c r="D60" s="14">
-        <v>0</v>
-      </c>
-      <c r="E60" s="14">
+      <c r="D60" s="47">
+        <v>0</v>
+      </c>
+      <c r="E60" s="48">
         <v>158.1</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="48">
         <v>1124.4000000000001</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="48">
         <v>517.4</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="48">
         <v>79.5</v>
       </c>
-      <c r="I60" s="14">
-        <v>0</v>
-      </c>
-      <c r="J60" s="14">
-        <v>0</v>
-      </c>
-      <c r="K60" s="14">
-        <v>0</v>
-      </c>
-      <c r="L60" s="14">
+      <c r="I60" s="48">
+        <v>0</v>
+      </c>
+      <c r="J60" s="48">
+        <v>0</v>
+      </c>
+      <c r="K60" s="48">
+        <v>0</v>
+      </c>
+      <c r="L60" s="48">
         <v>1108.3</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M60" s="46">
         <v>231.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19" t="s">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="29"/>
+      <c r="B61" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="31">
         <v>199490.9</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="32">
         <v>12554.7</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="33">
         <v>17023.8</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="44">
         <v>85667.9</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61" s="33">
         <v>48906.5</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61" s="33">
         <v>1889.8</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="33">
         <v>639.20000000000005</v>
       </c>
-      <c r="J61" s="21">
+      <c r="J61" s="33">
         <v>240</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="44">
         <v>1157.0999999999999</v>
       </c>
-      <c r="L61" s="21">
+      <c r="L61" s="33">
         <v>83219.8</v>
       </c>
-      <c r="M61" s="20">
+      <c r="M61" s="31">
         <v>31405.1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="27" t="s">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="49"/>
+      <c r="B62" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C62" s="51">
         <v>1250676.7</v>
       </c>
-      <c r="D62" s="29">
+      <c r="D62" s="52">
         <v>97557.6</v>
       </c>
-      <c r="E62" s="29">
+      <c r="E62" s="53">
         <v>147738</v>
       </c>
-      <c r="F62" s="29">
+      <c r="F62" s="53">
         <v>342827.7</v>
       </c>
-      <c r="G62" s="29">
+      <c r="G62" s="53">
         <v>168086.9</v>
       </c>
-      <c r="H62" s="29">
+      <c r="H62" s="53">
         <v>14198</v>
       </c>
-      <c r="I62" s="29">
+      <c r="I62" s="53">
         <v>15090.3</v>
       </c>
-      <c r="J62" s="29">
+      <c r="J62" s="53">
         <v>535.29999999999995</v>
       </c>
-      <c r="K62" s="29">
+      <c r="K62" s="53">
         <v>10410.299999999999</v>
       </c>
-      <c r="L62" s="29">
+      <c r="L62" s="53">
         <v>330221.3</v>
       </c>
-      <c r="M62" s="28">
+      <c r="M62" s="51">
         <v>454226.2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
-      <c r="B63" s="30" t="s">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="49"/>
+      <c r="B63" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="31">
+      <c r="C63" s="55">
         <v>29734687.399999999</v>
       </c>
-      <c r="D63" s="32">
+      <c r="D63" s="56">
         <v>1430763.6</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E63" s="57">
         <v>6039625.0999999996</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="53">
         <v>5956747.0999999996</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G63" s="57">
         <v>2005574.3</v>
       </c>
-      <c r="H63" s="32">
+      <c r="H63" s="57">
         <v>766308</v>
       </c>
-      <c r="I63" s="32">
+      <c r="I63" s="57">
         <v>385957.3</v>
       </c>
-      <c r="J63" s="32">
+      <c r="J63" s="57">
         <v>18308.400000000001</v>
       </c>
-      <c r="K63" s="32">
+      <c r="K63" s="53">
         <v>146962.1</v>
       </c>
-      <c r="L63" s="32">
+      <c r="L63" s="57">
         <v>5261243.7</v>
       </c>
-      <c r="M63" s="31">
+      <c r="M63" s="55">
         <v>12984473.9</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34" t="s">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="58"/>
+      <c r="B64" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C64" s="60">
         <v>1372872.6</v>
       </c>
-      <c r="D64" s="29">
+      <c r="D64" s="61">
         <v>119477</v>
       </c>
-      <c r="E64" s="29">
+      <c r="E64" s="62">
         <v>225762</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F64" s="57">
         <v>517410.5</v>
       </c>
-      <c r="G64" s="29">
+      <c r="G64" s="62">
         <v>93699.3</v>
       </c>
-      <c r="H64" s="29">
+      <c r="H64" s="62">
         <v>16805</v>
       </c>
-      <c r="I64" s="29">
+      <c r="I64" s="62">
         <v>40362.5</v>
       </c>
-      <c r="J64" s="29">
+      <c r="J64" s="62">
         <v>1007.1</v>
       </c>
-      <c r="K64" s="29">
+      <c r="K64" s="57">
         <v>7830.3</v>
       </c>
-      <c r="L64" s="29">
+      <c r="L64" s="62">
         <v>487215.8</v>
       </c>
-      <c r="M64" s="28">
+      <c r="M64" s="60">
         <v>350513.6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="27" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" s="58"/>
+      <c r="B65" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="55">
         <v>15185603.800000001</v>
       </c>
-      <c r="D65" s="36">
+      <c r="D65" s="63">
         <v>489206.8</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="64">
         <v>3978445.7</v>
       </c>
-      <c r="F65" s="36">
+      <c r="F65" s="64">
         <v>1847596.8</v>
       </c>
-      <c r="G65" s="36">
+      <c r="G65" s="64">
         <v>772253.2</v>
       </c>
-      <c r="H65" s="36">
+      <c r="H65" s="64">
         <v>208943.5</v>
       </c>
-      <c r="I65" s="36">
+      <c r="I65" s="64">
         <v>177466.4</v>
       </c>
-      <c r="J65" s="36">
+      <c r="J65" s="64">
         <v>2394.1</v>
       </c>
-      <c r="K65" s="36">
+      <c r="K65" s="64">
         <v>119737.8</v>
       </c>
-      <c r="L65" s="36">
+      <c r="L65" s="64">
         <v>1611017.3</v>
       </c>
-      <c r="M65" s="35">
+      <c r="M65" s="55">
         <v>7589679.4000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33"/>
-      <c r="B66" s="37" t="s">
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="58"/>
+      <c r="B66" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="38">
+      <c r="C66" s="66">
         <v>30985364.100000001</v>
       </c>
-      <c r="D66" s="39">
+      <c r="D66" s="67">
         <v>1528321.2</v>
       </c>
-      <c r="E66" s="39">
+      <c r="E66" s="68">
         <v>6187363.0999999996</v>
       </c>
-      <c r="F66" s="39">
+      <c r="F66" s="68">
         <v>6299574.7999999998</v>
       </c>
-      <c r="G66" s="39">
+      <c r="G66" s="68">
         <v>2173661.2000000002</v>
       </c>
-      <c r="H66" s="39">
+      <c r="H66" s="68">
         <v>780506.00000000105</v>
       </c>
-      <c r="I66" s="39">
+      <c r="I66" s="68">
         <v>401047.6</v>
       </c>
-      <c r="J66" s="39">
+      <c r="J66" s="68">
         <v>18843.7</v>
       </c>
-      <c r="K66" s="39">
+      <c r="K66" s="68">
         <v>157372.4</v>
       </c>
-      <c r="L66" s="39">
+      <c r="L66" s="68">
         <v>5591465</v>
       </c>
-      <c r="M66" s="38">
+      <c r="M66" s="66">
         <v>13438700.1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="40" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" s="58"/>
+      <c r="B67" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="41">
+      <c r="C67" s="55">
         <v>377444.3</v>
       </c>
-      <c r="D67" s="42">
+      <c r="D67" s="63">
         <v>16686</v>
       </c>
-      <c r="E67" s="42">
+      <c r="E67" s="64">
         <v>51150.9</v>
       </c>
-      <c r="F67" s="42">
+      <c r="F67" s="64">
         <v>122869</v>
       </c>
-      <c r="G67" s="42">
+      <c r="G67" s="64">
         <v>57078.8</v>
       </c>
-      <c r="H67" s="42">
+      <c r="H67" s="64">
         <v>3529.9</v>
       </c>
-      <c r="I67" s="42">
+      <c r="I67" s="64">
         <v>5733.3</v>
       </c>
-      <c r="J67" s="42">
+      <c r="J67" s="64">
         <v>107</v>
       </c>
-      <c r="K67" s="42">
+      <c r="K67" s="64">
         <v>1758.3</v>
       </c>
-      <c r="L67" s="42">
+      <c r="L67" s="64">
         <v>119387.6</v>
       </c>
-      <c r="M67" s="41">
+      <c r="M67" s="55">
         <v>118531.4</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
-      <c r="B68" s="27" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" s="58"/>
+      <c r="B68" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="55">
         <v>545573.1</v>
       </c>
-      <c r="D68" s="36">
+      <c r="D68" s="63">
         <v>29147.3</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="64">
         <v>62488.2</v>
       </c>
-      <c r="F68" s="36">
+      <c r="F68" s="64">
         <v>193352.8</v>
       </c>
-      <c r="G68" s="36">
+      <c r="G68" s="64">
         <v>79674.899999999994</v>
       </c>
-      <c r="H68" s="36">
+      <c r="H68" s="64">
         <v>4151.5</v>
       </c>
-      <c r="I68" s="36">
+      <c r="I68" s="64">
         <v>7394.5</v>
       </c>
-      <c r="J68" s="36">
+      <c r="J68" s="64">
         <v>240</v>
       </c>
-      <c r="K68" s="36">
+      <c r="K68" s="64">
         <v>1365.9</v>
       </c>
-      <c r="L68" s="36">
+      <c r="L68" s="64">
         <v>188590.5</v>
       </c>
-      <c r="M68" s="35">
+      <c r="M68" s="55">
         <v>167752.1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
-      <c r="B69" s="27" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" s="58"/>
+      <c r="B69" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="55">
         <v>59157.599999999999</v>
       </c>
-      <c r="D69" s="36">
+      <c r="D69" s="63">
         <v>238</v>
       </c>
-      <c r="E69" s="36">
+      <c r="E69" s="64">
         <v>6732.6</v>
       </c>
-      <c r="F69" s="36">
+      <c r="F69" s="64">
         <v>25377.1</v>
       </c>
-      <c r="G69" s="36">
+      <c r="G69" s="64">
         <v>20259.3</v>
       </c>
-      <c r="H69" s="36">
+      <c r="H69" s="64">
         <v>842.1</v>
       </c>
-      <c r="I69" s="36">
+      <c r="I69" s="64">
         <v>1219.0999999999999</v>
       </c>
-      <c r="J69" s="36">
+      <c r="J69" s="64">
         <v>107</v>
       </c>
-      <c r="K69" s="36">
+      <c r="K69" s="64">
         <v>142.80000000000001</v>
       </c>
-      <c r="L69" s="36">
+      <c r="L69" s="64">
         <v>24410.5</v>
       </c>
-      <c r="M69" s="35">
+      <c r="M69" s="55">
         <v>4239.8999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="27" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" s="58"/>
+      <c r="B70" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="55">
         <v>50290.8</v>
       </c>
-      <c r="D70" s="36">
+      <c r="D70" s="63">
         <v>2155.6</v>
       </c>
-      <c r="E70" s="36">
+      <c r="E70" s="64">
         <v>4857.7</v>
       </c>
-      <c r="F70" s="36">
+      <c r="F70" s="64">
         <v>15963.1</v>
       </c>
-      <c r="G70" s="36">
+      <c r="G70" s="64">
         <v>13810</v>
       </c>
-      <c r="H70" s="36">
+      <c r="H70" s="64">
         <v>2096.1</v>
       </c>
-      <c r="I70" s="36">
+      <c r="I70" s="64">
         <v>91.8</v>
       </c>
-      <c r="J70" s="36">
-        <v>0</v>
-      </c>
-      <c r="K70" s="36">
+      <c r="J70" s="64">
+        <v>0</v>
+      </c>
+      <c r="K70" s="64">
         <v>148.19999999999999</v>
       </c>
-      <c r="L70" s="36">
+      <c r="L70" s="64">
         <v>15438.4</v>
       </c>
-      <c r="M70" s="35">
+      <c r="M70" s="55">
         <v>11169.7</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
-      <c r="B71" s="27" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" s="58"/>
+      <c r="B71" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="55">
         <v>199490.9</v>
       </c>
-      <c r="D71" s="36">
+      <c r="D71" s="63">
         <v>12554.7</v>
       </c>
-      <c r="E71" s="36">
+      <c r="E71" s="64">
         <v>17023.8</v>
       </c>
-      <c r="F71" s="36">
+      <c r="F71" s="64">
         <v>85667.9</v>
       </c>
-      <c r="G71" s="36">
+      <c r="G71" s="64">
         <v>48906.5</v>
       </c>
-      <c r="H71" s="36">
+      <c r="H71" s="64">
         <v>1889.8</v>
       </c>
-      <c r="I71" s="36">
+      <c r="I71" s="64">
         <v>639.20000000000005</v>
       </c>
-      <c r="J71" s="36">
+      <c r="J71" s="64">
         <v>240</v>
       </c>
-      <c r="K71" s="36">
+      <c r="K71" s="64">
         <v>1157.0999999999999</v>
       </c>
-      <c r="L71" s="36">
+      <c r="L71" s="64">
         <v>83219.8</v>
       </c>
-      <c r="M71" s="35">
+      <c r="M71" s="55">
         <v>31405.1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="27" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" s="58"/>
+      <c r="B72" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="55">
         <v>80077.399999999994</v>
       </c>
-      <c r="D72" s="36">
+      <c r="D72" s="63">
         <v>377.7</v>
       </c>
-      <c r="E72" s="36">
+      <c r="E72" s="64">
         <v>11165.4</v>
       </c>
-      <c r="F72" s="36">
+      <c r="F72" s="64">
         <v>33530.5</v>
       </c>
-      <c r="G72" s="36">
+      <c r="G72" s="64">
         <v>23763.1</v>
       </c>
-      <c r="H72" s="36">
+      <c r="H72" s="64">
         <v>2062.6</v>
       </c>
-      <c r="I72" s="36">
+      <c r="I72" s="64">
         <v>1401</v>
       </c>
-      <c r="J72" s="36">
+      <c r="J72" s="64">
         <v>107</v>
       </c>
-      <c r="K72" s="36">
+      <c r="K72" s="64">
         <v>750.8</v>
       </c>
-      <c r="L72" s="36">
+      <c r="L72" s="64">
         <v>32742.3</v>
       </c>
-      <c r="M72" s="35">
+      <c r="M72" s="55">
         <v>6919.8</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="27" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" s="58"/>
+      <c r="B73" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="35">
+      <c r="C73" s="55">
         <v>487216.2</v>
       </c>
-      <c r="D73" s="36">
+      <c r="D73" s="63">
         <v>56610.5</v>
       </c>
-      <c r="E73" s="36">
+      <c r="E73" s="64">
         <v>58881.3</v>
       </c>
-      <c r="F73" s="36">
+      <c r="F73" s="64">
         <v>78238.8</v>
       </c>
-      <c r="G73" s="36">
+      <c r="G73" s="64">
         <v>36560.800000000003</v>
       </c>
-      <c r="H73" s="36">
+      <c r="H73" s="64">
         <v>7560.8</v>
       </c>
-      <c r="I73" s="36">
+      <c r="I73" s="64">
         <v>6350.2</v>
       </c>
-      <c r="J73" s="36">
+      <c r="J73" s="64">
         <v>188.3</v>
       </c>
-      <c r="K73" s="36">
+      <c r="K73" s="64">
         <v>3639.6</v>
       </c>
-      <c r="L73" s="36">
+      <c r="L73" s="64">
         <v>73457.5</v>
       </c>
-      <c r="M73" s="35">
+      <c r="M73" s="55">
         <v>239185.8</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="27" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" s="58"/>
+      <c r="B74" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="55">
         <v>268064.09999999998</v>
       </c>
-      <c r="D74" s="36">
+      <c r="D74" s="63">
         <v>12091.3</v>
       </c>
-      <c r="E74" s="36">
+      <c r="E74" s="64">
         <v>27302.3</v>
       </c>
-      <c r="F74" s="36">
+      <c r="F74" s="64">
         <v>84506.7</v>
       </c>
-      <c r="G74" s="36">
+      <c r="G74" s="64">
         <v>37716.699999999997</v>
       </c>
-      <c r="H74" s="36">
+      <c r="H74" s="64">
         <v>1987.4</v>
       </c>
-      <c r="I74" s="36">
+      <c r="I74" s="64">
         <v>4186.8999999999996</v>
       </c>
-      <c r="J74" s="36">
-        <v>0</v>
-      </c>
-      <c r="K74" s="36">
+      <c r="J74" s="64">
+        <v>0</v>
+      </c>
+      <c r="K74" s="64">
         <v>4620</v>
       </c>
-      <c r="L74" s="36">
+      <c r="L74" s="64">
         <v>81778.100000000006</v>
       </c>
-      <c r="M74" s="35">
+      <c r="M74" s="55">
         <v>95651.4</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="33"/>
-      <c r="B75" s="37" t="s">
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="58"/>
+      <c r="B75" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="38">
+      <c r="C75" s="55">
         <v>25784.1</v>
       </c>
-      <c r="D75" s="39">
+      <c r="D75" s="56">
         <v>1500.9</v>
       </c>
-      <c r="E75" s="39">
+      <c r="E75" s="57">
         <v>2097.1</v>
       </c>
-      <c r="F75" s="39">
+      <c r="F75" s="68">
         <v>9540.6</v>
       </c>
-      <c r="G75" s="39">
+      <c r="G75" s="57">
         <v>5158.3999999999996</v>
       </c>
-      <c r="H75" s="39">
+      <c r="H75" s="57">
         <v>1498.5</v>
       </c>
-      <c r="I75" s="39">
+      <c r="I75" s="57">
         <v>14.4</v>
       </c>
-      <c r="J75" s="39">
-        <v>0</v>
-      </c>
-      <c r="K75" s="39">
+      <c r="J75" s="57">
+        <v>0</v>
+      </c>
+      <c r="K75" s="68">
         <v>158</v>
       </c>
-      <c r="L75" s="39">
+      <c r="L75" s="57">
         <v>9279.1</v>
       </c>
-      <c r="M75" s="38">
+      <c r="M75" s="55">
         <v>5814.7</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="B76" s="40" t="s">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" s="58"/>
+      <c r="B76" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="41">
+      <c r="C76" s="70">
         <v>1569200</v>
       </c>
-      <c r="D76" s="42">
+      <c r="D76" s="71">
         <v>58665.3</v>
       </c>
-      <c r="E76" s="42">
+      <c r="E76" s="72">
         <v>348551.3</v>
       </c>
-      <c r="F76" s="42">
+      <c r="F76" s="64">
         <v>357878.6</v>
       </c>
-      <c r="G76" s="42">
+      <c r="G76" s="72">
         <v>54252.2</v>
       </c>
-      <c r="H76" s="42">
+      <c r="H76" s="72">
         <v>15945.2</v>
       </c>
-      <c r="I76" s="42">
+      <c r="I76" s="72">
         <v>21527.599999999999</v>
       </c>
-      <c r="J76" s="42">
+      <c r="J76" s="72">
         <v>2393</v>
       </c>
-      <c r="K76" s="42">
+      <c r="K76" s="64">
         <v>2515.1</v>
       </c>
-      <c r="L76" s="42">
+      <c r="L76" s="72">
         <v>329801.90000000002</v>
       </c>
-      <c r="M76" s="41">
+      <c r="M76" s="70">
         <v>707471.8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="33"/>
-      <c r="B77" s="27" t="s">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" s="58"/>
+      <c r="B77" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="35">
+      <c r="C77" s="55">
         <v>885332.9</v>
       </c>
-      <c r="D77" s="36">
+      <c r="D77" s="63">
         <v>69410.7</v>
       </c>
-      <c r="E77" s="36">
+      <c r="E77" s="64">
         <v>155588.70000000001</v>
       </c>
-      <c r="F77" s="36">
+      <c r="F77" s="64">
         <v>364650.6</v>
       </c>
-      <c r="G77" s="36">
+      <c r="G77" s="64">
         <v>66269.600000000006</v>
       </c>
-      <c r="H77" s="36">
+      <c r="H77" s="64">
         <v>10496.6</v>
       </c>
-      <c r="I77" s="36">
+      <c r="I77" s="64">
         <v>33641</v>
       </c>
-      <c r="J77" s="36">
+      <c r="J77" s="64">
         <v>951.3</v>
       </c>
-      <c r="K77" s="36">
+      <c r="K77" s="64">
         <v>5637.2</v>
       </c>
-      <c r="L77" s="36">
+      <c r="L77" s="64">
         <v>340949.8</v>
       </c>
-      <c r="M77" s="35">
+      <c r="M77" s="55">
         <v>178686.9</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="27" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" s="58"/>
+      <c r="B78" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="35">
+      <c r="C78" s="55">
         <v>2443698.7999999998</v>
       </c>
-      <c r="D78" s="36">
+      <c r="D78" s="63">
         <v>125057</v>
       </c>
-      <c r="E78" s="36">
+      <c r="E78" s="64">
         <v>350813.2</v>
       </c>
-      <c r="F78" s="36">
+      <c r="F78" s="64">
         <v>720389.7</v>
       </c>
-      <c r="G78" s="36">
+      <c r="G78" s="64">
         <v>322585.3</v>
       </c>
-      <c r="H78" s="36">
+      <c r="H78" s="64">
         <v>115673.9</v>
       </c>
-      <c r="I78" s="36">
+      <c r="I78" s="64">
         <v>61001.1</v>
       </c>
-      <c r="J78" s="36">
+      <c r="J78" s="64">
         <v>3806.4</v>
       </c>
-      <c r="K78" s="36">
+      <c r="K78" s="64">
         <v>5449</v>
       </c>
-      <c r="L78" s="36">
+      <c r="L78" s="64">
         <v>692165.4</v>
       </c>
-      <c r="M78" s="35">
+      <c r="M78" s="55">
         <v>738923.9</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33"/>
-      <c r="B79" s="37" t="s">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="58"/>
+      <c r="B79" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="38">
+      <c r="C79" s="66">
         <v>10452167.9</v>
       </c>
-      <c r="D79" s="39">
+      <c r="D79" s="67">
         <v>694754.6</v>
       </c>
-      <c r="E79" s="39">
+      <c r="E79" s="68">
         <v>1322679.2</v>
       </c>
-      <c r="F79" s="39">
+      <c r="F79" s="68">
         <v>3193254.2</v>
       </c>
-      <c r="G79" s="39">
+      <c r="G79" s="68">
         <v>887762.1</v>
       </c>
-      <c r="H79" s="39">
+      <c r="H79" s="68">
         <v>494490.4</v>
       </c>
-      <c r="I79" s="39">
+      <c r="I79" s="68">
         <v>149944.5</v>
       </c>
-      <c r="J79" s="39">
+      <c r="J79" s="68">
         <v>13551.7</v>
       </c>
-      <c r="K79" s="39">
+      <c r="K79" s="68">
         <v>18967.5</v>
       </c>
-      <c r="L79" s="39">
+      <c r="L79" s="68">
         <v>2857856.9</v>
       </c>
-      <c r="M79" s="38">
+      <c r="M79" s="66">
         <v>3676763.9</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="40" t="s">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" s="58"/>
+      <c r="B80" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="41">
+      <c r="C80" s="55">
         <v>211076.5</v>
       </c>
-      <c r="D80" s="42">
+      <c r="D80" s="63">
         <v>13983.8</v>
       </c>
-      <c r="E80" s="42">
+      <c r="E80" s="64">
         <v>20366.400000000001</v>
       </c>
-      <c r="F80" s="42">
+      <c r="F80" s="64">
         <v>70169</v>
       </c>
-      <c r="G80" s="42">
+      <c r="G80" s="64">
         <v>32152.799999999999</v>
       </c>
-      <c r="H80" s="42">
+      <c r="H80" s="64">
         <v>2285.6999999999998</v>
       </c>
-      <c r="I80" s="42">
+      <c r="I80" s="64">
         <v>446.7</v>
       </c>
-      <c r="J80" s="42">
-        <v>0</v>
-      </c>
-      <c r="K80" s="42">
+      <c r="J80" s="64">
+        <v>0</v>
+      </c>
+      <c r="K80" s="64">
         <v>4638.8999999999996</v>
       </c>
-      <c r="L80" s="42">
+      <c r="L80" s="64">
         <v>67581.600000000006</v>
       </c>
-      <c r="M80" s="41">
+      <c r="M80" s="55">
         <v>67032.5</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
-      <c r="B81" s="27" t="s">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81" s="58"/>
+      <c r="B81" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="35">
+      <c r="C81" s="55">
         <v>3759521.5</v>
       </c>
-      <c r="D81" s="36">
+      <c r="D81" s="63">
         <v>247505.1</v>
       </c>
-      <c r="E81" s="36">
+      <c r="E81" s="64">
         <v>650362.4</v>
       </c>
-      <c r="F81" s="36">
+      <c r="F81" s="64">
         <v>707814.9</v>
       </c>
-      <c r="G81" s="36">
+      <c r="G81" s="64">
         <v>389187.3</v>
       </c>
-      <c r="H81" s="36">
+      <c r="H81" s="64">
         <v>81228</v>
       </c>
-      <c r="I81" s="36">
+      <c r="I81" s="64">
         <v>29518.5</v>
       </c>
-      <c r="J81" s="36">
+      <c r="J81" s="64">
         <v>1910.2</v>
       </c>
-      <c r="K81" s="36">
+      <c r="K81" s="64">
         <v>23694.1</v>
       </c>
-      <c r="L81" s="36">
+      <c r="L81" s="64">
         <v>603120.6</v>
       </c>
-      <c r="M81" s="35">
+      <c r="M81" s="55">
         <v>1628224.2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="27" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" s="58"/>
+      <c r="B82" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="35">
+      <c r="C82" s="55">
         <v>1039600.2</v>
       </c>
-      <c r="D82" s="36">
+      <c r="D82" s="63">
         <v>83573.8</v>
       </c>
-      <c r="E82" s="36">
+      <c r="E82" s="64">
         <v>127371.6</v>
       </c>
-      <c r="F82" s="36">
+      <c r="F82" s="64">
         <v>272658.7</v>
       </c>
-      <c r="G82" s="36">
+      <c r="G82" s="64">
         <v>135934.1</v>
       </c>
-      <c r="H82" s="36">
+      <c r="H82" s="64">
         <v>11912.3</v>
       </c>
-      <c r="I82" s="36">
+      <c r="I82" s="64">
         <v>14643.6</v>
       </c>
-      <c r="J82" s="36">
+      <c r="J82" s="64">
         <v>535.29999999999995</v>
       </c>
-      <c r="K82" s="36">
+      <c r="K82" s="64">
         <v>5771.4</v>
       </c>
-      <c r="L82" s="36">
+      <c r="L82" s="64">
         <v>262639.7</v>
       </c>
-      <c r="M82" s="35">
+      <c r="M82" s="55">
         <v>387193.7</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="33"/>
-      <c r="B83" s="37" t="s">
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="58"/>
+      <c r="B83" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="38">
+      <c r="C83" s="55">
         <v>25975165.899999999</v>
       </c>
-      <c r="D83" s="39">
+      <c r="D83" s="56">
         <v>1183258.5</v>
       </c>
-      <c r="E83" s="39">
+      <c r="E83" s="57">
         <v>5389262.7000000002</v>
       </c>
-      <c r="F83" s="39">
+      <c r="F83" s="68">
         <v>5248932.2</v>
       </c>
-      <c r="G83" s="39">
+      <c r="G83" s="57">
         <v>1616387</v>
       </c>
-      <c r="H83" s="39">
+      <c r="H83" s="57">
         <v>685080.00000000105</v>
       </c>
-      <c r="I83" s="39">
+      <c r="I83" s="57">
         <v>356438.8</v>
       </c>
-      <c r="J83" s="39">
+      <c r="J83" s="57">
         <v>16398.2</v>
       </c>
-      <c r="K83" s="39">
+      <c r="K83" s="68">
         <v>123268</v>
       </c>
-      <c r="L83" s="39">
+      <c r="L83" s="57">
         <v>4658123.0999999996</v>
       </c>
-      <c r="M83" s="38">
+      <c r="M83" s="55">
         <v>11356249.699999999</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="40" t="s">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" s="58"/>
+      <c r="B84" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="41">
+      <c r="C84" s="70">
         <v>103762.1</v>
       </c>
-      <c r="D84" s="42">
+      <c r="D84" s="71">
         <v>652.6</v>
       </c>
-      <c r="E84" s="42">
+      <c r="E84" s="72">
         <v>12298.1</v>
       </c>
-      <c r="F84" s="42">
+      <c r="F84" s="64">
         <v>41334.5</v>
       </c>
-      <c r="G84" s="42">
+      <c r="G84" s="72">
         <v>31049.599999999999</v>
       </c>
-      <c r="H84" s="42">
+      <c r="H84" s="72">
         <v>2338.1</v>
       </c>
-      <c r="I84" s="42">
+      <c r="I84" s="72">
         <v>1463.9</v>
       </c>
-      <c r="J84" s="42">
+      <c r="J84" s="72">
         <v>107</v>
       </c>
-      <c r="K84" s="42">
+      <c r="K84" s="64">
         <v>1619.3</v>
       </c>
-      <c r="L84" s="42">
+      <c r="L84" s="72">
         <v>39975.9</v>
       </c>
-      <c r="M84" s="41">
+      <c r="M84" s="70">
         <v>12894.1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="27" t="s">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" s="58"/>
+      <c r="B85" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="35">
+      <c r="C85" s="74">
         <v>91118.3</v>
       </c>
-      <c r="D85" s="36">
+      <c r="D85" s="63">
         <v>1035.5999999999999</v>
       </c>
-      <c r="E85" s="36">
+      <c r="E85" s="64">
         <v>37939</v>
       </c>
-      <c r="F85" s="36">
+      <c r="F85" s="64">
         <v>16231.5</v>
       </c>
-      <c r="G85" s="36">
+      <c r="G85" s="64">
         <v>11777.9</v>
       </c>
-      <c r="H85" s="36">
+      <c r="H85" s="64">
         <v>2233.1</v>
       </c>
-      <c r="I85" s="36">
+      <c r="I85" s="64">
         <v>1767.1</v>
       </c>
-      <c r="J85" s="36">
-        <v>0</v>
-      </c>
-      <c r="K85" s="36">
+      <c r="J85" s="64">
+        <v>0</v>
+      </c>
+      <c r="K85" s="64">
         <v>4081.9</v>
       </c>
-      <c r="L85" s="36">
+      <c r="L85" s="64">
         <v>12090.4</v>
       </c>
-      <c r="M85" s="35">
+      <c r="M85" s="74">
         <v>16165.9</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="27" t="s">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" s="58"/>
+      <c r="B86" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="35">
+      <c r="C86" s="55">
         <v>693061.2</v>
       </c>
-      <c r="D86" s="36">
+      <c r="D86" s="63">
         <v>40014</v>
       </c>
-      <c r="E86" s="36">
+      <c r="E86" s="64">
         <v>81142.8</v>
       </c>
-      <c r="F86" s="36">
+      <c r="F86" s="64">
         <v>232150.2</v>
       </c>
-      <c r="G86" s="36">
+      <c r="G86" s="64">
         <v>121284.1</v>
       </c>
-      <c r="H86" s="36">
+      <c r="H86" s="64">
         <v>6387.1</v>
       </c>
-      <c r="I86" s="36">
+      <c r="I86" s="64">
         <v>8558.1</v>
       </c>
-      <c r="J86" s="36">
+      <c r="J86" s="64">
         <v>240</v>
       </c>
-      <c r="K86" s="36">
+      <c r="K86" s="64">
         <v>6103.2</v>
       </c>
-      <c r="L86" s="36">
+      <c r="L86" s="64">
         <v>224950.6</v>
       </c>
-      <c r="M86" s="35">
+      <c r="M86" s="55">
         <v>197181</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
-      <c r="B87" s="27" t="s">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" s="58"/>
+      <c r="B87" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C87" s="35">
+      <c r="C87" s="55">
         <v>3899597.3</v>
       </c>
-      <c r="D87" s="36">
+      <c r="D87" s="63">
         <v>115296</v>
       </c>
-      <c r="E87" s="36">
+      <c r="E87" s="64">
         <v>849402.8</v>
       </c>
-      <c r="F87" s="36">
+      <c r="F87" s="64">
         <v>640047.19999999995</v>
       </c>
-      <c r="G87" s="36">
+      <c r="G87" s="64">
         <v>359362.8</v>
       </c>
-      <c r="H87" s="36">
+      <c r="H87" s="64">
         <v>76776</v>
       </c>
-      <c r="I87" s="36">
+      <c r="I87" s="64">
         <v>63729</v>
       </c>
-      <c r="J87" s="36">
+      <c r="J87" s="64">
         <v>491.1</v>
       </c>
-      <c r="K87" s="36">
+      <c r="K87" s="64">
         <v>45613.5</v>
       </c>
-      <c r="L87" s="36">
+      <c r="L87" s="64">
         <v>596795.69999999995</v>
       </c>
-      <c r="M87" s="35">
+      <c r="M87" s="55">
         <v>1748797.4</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="27" t="s">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88" s="58"/>
+      <c r="B88" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="35">
+      <c r="C88" s="55">
         <v>453254.6</v>
       </c>
-      <c r="D88" s="36">
+      <c r="D88" s="63">
         <v>56891</v>
       </c>
-      <c r="E88" s="36">
+      <c r="E88" s="64">
         <v>54294.1</v>
       </c>
-      <c r="F88" s="36">
+      <c r="F88" s="64">
         <v>69170.7</v>
       </c>
-      <c r="G88" s="36">
+      <c r="G88" s="64">
         <v>15740.1</v>
       </c>
-      <c r="H88" s="36">
+      <c r="H88" s="64">
         <v>5469</v>
       </c>
-      <c r="I88" s="36">
+      <c r="I88" s="64">
         <v>5068.3</v>
       </c>
-      <c r="J88" s="36">
+      <c r="J88" s="64">
         <v>188.3</v>
       </c>
-      <c r="K88" s="36">
+      <c r="K88" s="64">
         <v>2646.1</v>
       </c>
-      <c r="L88" s="36">
+      <c r="L88" s="64">
         <v>65143</v>
       </c>
-      <c r="M88" s="35">
+      <c r="M88" s="55">
         <v>243786.7</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="27" t="s">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" s="58"/>
+      <c r="B89" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C89" s="35">
+      <c r="C89" s="55">
         <v>14924920.199999999</v>
       </c>
-      <c r="D89" s="36">
+      <c r="D89" s="63">
         <v>557120.80000000005</v>
       </c>
-      <c r="E89" s="36">
+      <c r="E89" s="64">
         <v>3725114.9</v>
       </c>
-      <c r="F89" s="36">
+      <c r="F89" s="64">
         <v>2063138.9</v>
       </c>
-      <c r="G89" s="36">
+      <c r="G89" s="64">
         <v>784780.4</v>
       </c>
-      <c r="H89" s="36">
+      <c r="H89" s="64">
         <v>204921.9</v>
       </c>
-      <c r="I89" s="36">
+      <c r="I89" s="64">
         <v>183992.5</v>
       </c>
-      <c r="J89" s="36">
+      <c r="J89" s="64">
         <v>4494.5</v>
       </c>
-      <c r="K89" s="36">
+      <c r="K89" s="64">
         <v>78259.8</v>
       </c>
-      <c r="L89" s="36">
+      <c r="L89" s="64">
         <v>1747736.6</v>
       </c>
-      <c r="M89" s="35">
+      <c r="M89" s="55">
         <v>7323107.5999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="33"/>
-      <c r="B90" s="37" t="s">
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="58"/>
+      <c r="B90" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="C90" s="38">
+      <c r="C90" s="66">
         <v>10764438.199999999</v>
       </c>
-      <c r="D90" s="39">
+      <c r="D90" s="67">
         <v>744101.4</v>
       </c>
-      <c r="E90" s="39">
+      <c r="E90" s="68">
         <v>1418772.1</v>
       </c>
-      <c r="F90" s="39">
+      <c r="F90" s="68">
         <v>3213363.1</v>
       </c>
-      <c r="G90" s="39">
+      <c r="G90" s="68">
         <v>847957.4</v>
       </c>
-      <c r="H90" s="39">
+      <c r="H90" s="68">
         <v>481746.1</v>
       </c>
-      <c r="I90" s="39">
+      <c r="I90" s="68">
         <v>136468.70000000001</v>
       </c>
-      <c r="J90" s="39">
+      <c r="J90" s="68">
         <v>13322.8</v>
       </c>
-      <c r="K90" s="39">
+      <c r="K90" s="68">
         <v>19048.599999999999</v>
       </c>
-      <c r="L90" s="39">
+      <c r="L90" s="68">
         <v>2880837.7</v>
       </c>
-      <c r="M90" s="38">
+      <c r="M90" s="66">
         <v>3889646.7</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
-      <c r="B91" s="40" t="s">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" s="58"/>
+      <c r="B91" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="C91" s="41">
+      <c r="C91" s="55">
         <v>175354.2</v>
       </c>
-      <c r="D91" s="42">
+      <c r="D91" s="63">
         <v>1926.6</v>
       </c>
-      <c r="E91" s="42">
+      <c r="E91" s="64">
         <v>23665.3</v>
       </c>
-      <c r="F91" s="42">
+      <c r="F91" s="64">
         <v>70337.100000000006</v>
       </c>
-      <c r="G91" s="42">
+      <c r="G91" s="64">
         <v>43507.1</v>
       </c>
-      <c r="H91" s="42">
+      <c r="H91" s="64">
         <v>4230.8999999999996</v>
       </c>
-      <c r="I91" s="42">
+      <c r="I91" s="64">
         <v>2408.5</v>
       </c>
-      <c r="J91" s="42">
+      <c r="J91" s="64">
         <v>107</v>
       </c>
-      <c r="K91" s="42">
+      <c r="K91" s="64">
         <v>1994.8</v>
       </c>
-      <c r="L91" s="42">
+      <c r="L91" s="64">
         <v>68618.3</v>
       </c>
-      <c r="M91" s="41">
+      <c r="M91" s="55">
         <v>27170.9</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
-      <c r="B92" s="27" t="s">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" s="58"/>
+      <c r="B92" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="35">
+      <c r="C92" s="55">
         <v>192030.2</v>
       </c>
-      <c r="D92" s="36">
+      <c r="D92" s="63">
         <v>1499.5</v>
       </c>
-      <c r="E92" s="36">
+      <c r="E92" s="64">
         <v>35647.199999999997</v>
       </c>
-      <c r="F92" s="36">
+      <c r="F92" s="64">
         <v>39764.1</v>
       </c>
-      <c r="G92" s="36">
+      <c r="G92" s="64">
         <v>26065.5</v>
       </c>
-      <c r="H92" s="36">
+      <c r="H92" s="64">
         <v>3110.6</v>
       </c>
-      <c r="I92" s="36">
+      <c r="I92" s="64">
         <v>8101.8</v>
       </c>
-      <c r="J92" s="36">
+      <c r="J92" s="64">
         <v>17.899999999999999</v>
       </c>
-      <c r="K92" s="36">
+      <c r="K92" s="64">
         <v>2018</v>
       </c>
-      <c r="L92" s="36">
+      <c r="L92" s="64">
         <v>33795</v>
       </c>
-      <c r="M92" s="35">
+      <c r="M92" s="55">
         <v>75913.7</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
-      <c r="B93" s="27" t="s">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93" s="58"/>
+      <c r="B93" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="C93" s="35">
+      <c r="C93" s="55">
         <v>5789.1</v>
       </c>
-      <c r="D93" s="36">
-        <v>0</v>
-      </c>
-      <c r="E93" s="36">
+      <c r="D93" s="63">
+        <v>0</v>
+      </c>
+      <c r="E93" s="64">
         <v>355.1</v>
       </c>
-      <c r="F93" s="36">
+      <c r="F93" s="64">
         <v>1836.8</v>
       </c>
-      <c r="G93" s="36">
+      <c r="G93" s="64">
         <v>281.3</v>
       </c>
-      <c r="H93" s="36">
+      <c r="H93" s="64">
         <v>70.3</v>
       </c>
-      <c r="I93" s="36">
+      <c r="I93" s="64">
         <v>6.1</v>
       </c>
-      <c r="J93" s="36">
-        <v>0</v>
-      </c>
-      <c r="K93" s="36">
+      <c r="J93" s="64">
+        <v>0</v>
+      </c>
+      <c r="K93" s="64">
         <v>158.19999999999999</v>
       </c>
-      <c r="L93" s="36">
+      <c r="L93" s="64">
         <v>1643.7</v>
       </c>
-      <c r="M93" s="35">
+      <c r="M93" s="55">
         <v>3079.7</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
-      <c r="B94" s="27" t="s">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" s="58"/>
+      <c r="B94" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C94" s="35">
+      <c r="C94" s="55">
         <v>134730.29999999999</v>
       </c>
-      <c r="D94" s="36">
+      <c r="D94" s="63">
         <v>10607.1</v>
       </c>
-      <c r="E94" s="36">
+      <c r="E94" s="64">
         <v>26677.599999999999</v>
       </c>
-      <c r="F94" s="36">
+      <c r="F94" s="64">
         <v>28042.3</v>
       </c>
-      <c r="G94" s="36">
+      <c r="G94" s="64">
         <v>4901.7</v>
       </c>
-      <c r="H94" s="36">
+      <c r="H94" s="64">
         <v>1255.0999999999999</v>
       </c>
-      <c r="I94" s="36">
+      <c r="I94" s="64">
         <v>1565</v>
       </c>
-      <c r="J94" s="36">
-        <v>0</v>
-      </c>
-      <c r="K94" s="36">
+      <c r="J94" s="64">
+        <v>0</v>
+      </c>
+      <c r="K94" s="64">
         <v>2204.9</v>
       </c>
-      <c r="L94" s="36">
+      <c r="L94" s="64">
         <v>24485.1</v>
       </c>
-      <c r="M94" s="35">
+      <c r="M94" s="55">
         <v>59392.2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
-      <c r="B95" s="27" t="s">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" s="58"/>
+      <c r="B95" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="C95" s="35">
+      <c r="C95" s="55">
         <v>84008.3</v>
       </c>
-      <c r="D95" s="36">
+      <c r="D95" s="63">
         <v>344.2</v>
       </c>
-      <c r="E95" s="36">
+      <c r="E95" s="64">
         <v>14054.1</v>
       </c>
-      <c r="F95" s="36">
+      <c r="F95" s="64">
         <v>28920.3</v>
       </c>
-      <c r="G95" s="36">
+      <c r="G95" s="64">
         <v>23591.5</v>
       </c>
-      <c r="H95" s="36">
+      <c r="H95" s="64">
         <v>884.5</v>
       </c>
-      <c r="I95" s="36">
+      <c r="I95" s="64">
         <v>1800.1</v>
       </c>
-      <c r="J95" s="36">
+      <c r="J95" s="64">
         <v>107</v>
       </c>
-      <c r="K95" s="36">
+      <c r="K95" s="64">
         <v>1274.4000000000001</v>
       </c>
-      <c r="L95" s="36">
+      <c r="L95" s="64">
         <v>28176.7</v>
       </c>
-      <c r="M95" s="35">
+      <c r="M95" s="55">
         <v>13035.2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="33"/>
-      <c r="B96" s="37" t="s">
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="58"/>
+      <c r="B96" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="38">
+      <c r="C96" s="55">
         <v>537916.69999999995</v>
       </c>
-      <c r="D96" s="39">
+      <c r="D96" s="56">
         <v>25097.1</v>
       </c>
-      <c r="E96" s="39">
+      <c r="E96" s="57">
         <v>61056.5</v>
       </c>
-      <c r="F96" s="39">
+      <c r="F96" s="68">
         <v>97165.2</v>
       </c>
-      <c r="G96" s="39">
+      <c r="G96" s="57">
         <v>82812.5</v>
       </c>
-      <c r="H96" s="39">
+      <c r="H96" s="57">
         <v>29847.7</v>
       </c>
-      <c r="I96" s="39">
+      <c r="I96" s="57">
         <v>6413</v>
       </c>
-      <c r="J96" s="39">
+      <c r="J96" s="57">
         <v>3</v>
       </c>
-      <c r="K96" s="39">
+      <c r="K96" s="68">
         <v>20513</v>
       </c>
-      <c r="L96" s="39">
+      <c r="L96" s="57">
         <v>89298.6</v>
       </c>
-      <c r="M96" s="38">
+      <c r="M96" s="55">
         <v>215124.7</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
-      <c r="B97" s="40" t="s">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A97" s="58"/>
+      <c r="B97" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="C97" s="41">
+      <c r="C97" s="70">
         <v>349509.3</v>
       </c>
-      <c r="D97" s="42">
+      <c r="D97" s="71">
         <v>14999.3</v>
       </c>
-      <c r="E97" s="42">
+      <c r="E97" s="72">
         <v>35106.699999999997</v>
       </c>
-      <c r="F97" s="42">
+      <c r="F97" s="64">
         <v>140551.79999999999</v>
       </c>
-      <c r="G97" s="42">
+      <c r="G97" s="72">
         <v>87872.3</v>
       </c>
-      <c r="H97" s="42">
+      <c r="H97" s="72">
         <v>5411.9</v>
       </c>
-      <c r="I97" s="42">
+      <c r="I97" s="72">
         <v>2890.9</v>
       </c>
-      <c r="J97" s="42">
+      <c r="J97" s="72">
         <v>107</v>
       </c>
-      <c r="K97" s="42">
+      <c r="K97" s="64">
         <v>2865</v>
       </c>
-      <c r="L97" s="42">
+      <c r="L97" s="72">
         <v>137867.29999999999</v>
       </c>
-      <c r="M97" s="41">
+      <c r="M97" s="70">
         <v>59695.9</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="33"/>
-      <c r="B98" s="37" t="s">
+    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="58"/>
+      <c r="B98" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="C98" s="38">
+      <c r="C98" s="66">
         <v>1119955.2</v>
       </c>
-      <c r="D98" s="39">
+      <c r="D98" s="67">
         <v>64598.6</v>
       </c>
-      <c r="E98" s="39">
+      <c r="E98" s="68">
         <v>218295.9</v>
       </c>
-      <c r="F98" s="39">
+      <c r="F98" s="68">
         <v>264579.8</v>
       </c>
-      <c r="G98" s="39">
+      <c r="G98" s="68">
         <v>168529.9</v>
       </c>
-      <c r="H98" s="39">
+      <c r="H98" s="68">
         <v>39406.1</v>
       </c>
-      <c r="I98" s="39">
+      <c r="I98" s="68">
         <v>20501.7</v>
       </c>
-      <c r="J98" s="39">
+      <c r="J98" s="68">
         <v>42</v>
       </c>
-      <c r="K98" s="39">
+      <c r="K98" s="68">
         <v>19302.599999999999</v>
       </c>
-      <c r="L98" s="39">
+      <c r="L98" s="68">
         <v>244638.2</v>
       </c>
-      <c r="M98" s="38">
+      <c r="M98" s="66">
         <v>324618.90000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" s="75"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="77"/>
+      <c r="J99" s="77"/>
+      <c r="K99" s="77"/>
+      <c r="L99" s="77"/>
+      <c r="M99" s="77"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="45"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="45"/>
-      <c r="M100" s="45"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C100" s="78"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="78"/>
+      <c r="I100" s="78"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="78"/>
+      <c r="L100" s="78"/>
+      <c r="M100" s="78"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="45"/>
-      <c r="K101" s="45"/>
-      <c r="L101" s="45"/>
-      <c r="M101" s="45"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="78"/>
+      <c r="J101" s="78"/>
+      <c r="K101" s="78"/>
+      <c r="L101" s="78"/>
+      <c r="M101" s="78"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="45"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="45"/>
-      <c r="M102" s="45"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C102" s="78"/>
+      <c r="D102" s="78"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="78"/>
+      <c r="H102" s="78"/>
+      <c r="I102" s="78"/>
+      <c r="J102" s="78"/>
+      <c r="K102" s="78"/>
+      <c r="L102" s="78"/>
+      <c r="M102" s="78"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="45"/>
-      <c r="K103" s="45"/>
-      <c r="L103" s="45"/>
-      <c r="M103" s="45"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C103" s="78"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="78"/>
+      <c r="I103" s="78"/>
+      <c r="J103" s="78"/>
+      <c r="K103" s="78"/>
+      <c r="L103" s="78"/>
+      <c r="M103" s="78"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="45"/>
-      <c r="J104" s="45"/>
-      <c r="K104" s="45"/>
-      <c r="L104" s="45"/>
-      <c r="M104" s="45"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C104" s="78"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="78"/>
+      <c r="H104" s="78"/>
+      <c r="I104" s="78"/>
+      <c r="J104" s="78"/>
+      <c r="K104" s="78"/>
+      <c r="L104" s="78"/>
+      <c r="M104" s="78"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="45"/>
-      <c r="J105" s="45"/>
-      <c r="K105" s="45"/>
-      <c r="L105" s="45"/>
-      <c r="M105" s="45"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="45"/>
-      <c r="J106" s="45"/>
-      <c r="K106" s="45"/>
-      <c r="L106" s="45"/>
-      <c r="M106" s="45"/>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="46" t="s">
+      <c r="C105" s="78"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="78"/>
+      <c r="H105" s="78"/>
+      <c r="I105" s="78"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="78"/>
+      <c r="M105" s="78"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="78"/>
+      <c r="H106" s="78"/>
+      <c r="I106" s="78"/>
+      <c r="J106" s="78"/>
+      <c r="K106" s="78"/>
+      <c r="L106" s="78"/>
+      <c r="M106" s="78"/>
+    </row>
+    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="45"/>
-      <c r="J107" s="45"/>
-      <c r="K107" s="45"/>
-      <c r="L107" s="45"/>
-      <c r="M107" s="45"/>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="46"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="45"/>
-      <c r="J108" s="45"/>
-      <c r="K108" s="45"/>
-      <c r="L108" s="45"/>
-      <c r="M108" s="45"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="78"/>
+      <c r="I107" s="78"/>
+      <c r="J107" s="78"/>
+      <c r="K107" s="78"/>
+      <c r="L107" s="78"/>
+      <c r="M107" s="78"/>
+    </row>
+    <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B108" s="79"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="78"/>
+      <c r="I108" s="78"/>
+      <c r="J108" s="78"/>
+      <c r="K108" s="78"/>
+      <c r="L108" s="78"/>
+      <c r="M108" s="78"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" s="78"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="78"/>
+      <c r="I109" s="78"/>
+      <c r="J109" s="78"/>
+      <c r="K109" s="78"/>
+      <c r="L109" s="78"/>
+      <c r="M109" s="78"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B110" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="45"/>
-      <c r="J109" s="45"/>
-      <c r="K109" s="45"/>
-      <c r="L109" s="45"/>
-      <c r="M109" s="45"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="78"/>
+      <c r="D110" s="78"/>
+      <c r="E110" s="78"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="78"/>
+      <c r="H110" s="78"/>
+      <c r="I110" s="78"/>
+      <c r="J110" s="78"/>
+      <c r="K110" s="78"/>
+      <c r="L110" s="78"/>
+      <c r="M110" s="78"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B111" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
-      <c r="K110" s="45"/>
-      <c r="L110" s="45"/>
-      <c r="M110" s="45"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="45"/>
-      <c r="K111" s="45"/>
-      <c r="L111" s="45"/>
-      <c r="M111" s="45"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C111" s="78"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="78"/>
+      <c r="F111" s="78"/>
+      <c r="G111" s="78"/>
+      <c r="H111" s="78"/>
+      <c r="I111" s="78"/>
+      <c r="J111" s="78"/>
+      <c r="K111" s="78"/>
+      <c r="L111" s="78"/>
+      <c r="M111" s="78"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="45"/>
-      <c r="J112" s="45"/>
-      <c r="K112" s="45"/>
-      <c r="L112" s="45"/>
-      <c r="M112" s="45"/>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
-      <c r="K113" s="45"/>
-      <c r="L113" s="45"/>
-      <c r="M113" s="45"/>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C112" s="78"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="78"/>
+      <c r="G112" s="78"/>
+      <c r="H112" s="78"/>
+      <c r="I112" s="78"/>
+      <c r="J112" s="78"/>
+      <c r="K112" s="78"/>
+      <c r="L112" s="78"/>
+      <c r="M112" s="78"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B113" s="2"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="78"/>
+      <c r="E113" s="78"/>
+      <c r="F113" s="78"/>
+      <c r="G113" s="78"/>
+      <c r="H113" s="78"/>
+      <c r="I113" s="78"/>
+      <c r="J113" s="78"/>
+      <c r="K113" s="78"/>
+      <c r="L113" s="78"/>
+      <c r="M113" s="78"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
-      <c r="C114" s="45"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="45"/>
-      <c r="K114" s="45"/>
-      <c r="L114" s="45"/>
-      <c r="M114" s="45"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="78"/>
+      <c r="E114" s="78"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="78"/>
+      <c r="H114" s="78"/>
+      <c r="I114" s="78"/>
+      <c r="J114" s="78"/>
+      <c r="K114" s="78"/>
+      <c r="L114" s="78"/>
+      <c r="M114" s="78"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{D982D446-7922-44DA-80C9-C28608FE6EC6}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{C0F0A81D-3F2E-4848-AEF6-2424BAF20B5A}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{5F83EC67-5872-4C5D-8986-B8ADD9912FFD}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{EB2913D0-9FD8-4AD9-A801-C8F7E68483B8}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{3A091480-3AA4-4D07-A330-FAEC8CFE46DB}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{88DB0012-3565-47DC-8D54-CDE7776C666E}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B2660D99-0115-4BFB-91B4-BF32C63CE85F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{93351423-E7B4-4F85-96C9-343D1D26D1BB}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{78F83D08-3055-4E80-8C73-830B7E9139A7}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{9102C800-3F8C-47D5-9A44-2F81573BA59B}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{1B8AC06D-FE61-497B-A73A-D8060BBE4EAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/DDAf_2024_Tableau_annexe_Tab25.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8FEE14C-5008-4055-A62A-9B0DBCB1F4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{743F8F56-25F1-43DB-A724-03EE8601096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{89E7E3AA-4E46-4D00-9C71-E0220D9A1965}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACE8F883-786A-4428-B897-D9F0B56121E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -1418,20 +1418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3ABF61-BD78-425D-BFB0-A2611BF8F034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993E22CF-3394-452D-B9CB-E10CF2ED3DC9}">
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1447,7 +1447,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>3919.4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>2962.9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>145.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>1491.6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>217919.3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>31</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>2411.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>3866.2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>35</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>232889.2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>2480.3000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>193.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>45</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>2227.8000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>49</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>558.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>1406.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>53</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>35</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>7031</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>56</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>58</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>60</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>309.7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>62</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>64</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>714.8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>66</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>936.1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>68</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>2211.1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>70</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>219.3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>72</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>364.4</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>74</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>315.8</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>76</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>471.3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>78</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>5308.1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>80</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>2671.7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>82</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>35</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>13732.6</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>85</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>38567.800000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>87</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>73516.899999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>89</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>18642.099999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>91</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>762.1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>93</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>28510.6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>95</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>9168.7999999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>35</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>169168.3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>98</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>506.2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>100</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>412.3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>102</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>283.39999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>104</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>3560.8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>106</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>108</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>6371.5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>110</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>552.29999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>112</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>114</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>246.3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>116</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>1463.8</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>118</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>646.79999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>120</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>13549.4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>122</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>3246.8</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>124</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>126</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>231.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
       <c r="B61" s="30" t="s">
         <v>128</v>
@@ -3905,7 +3905,7 @@
         <v>31405.1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="49"/>
       <c r="B62" s="50" t="s">
         <v>129</v>
@@ -3944,7 +3944,7 @@
         <v>454226.2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="49"/>
       <c r="B63" s="54" t="s">
         <v>130</v>
@@ -3983,7 +3983,7 @@
         <v>12984473.9</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="58"/>
       <c r="B64" s="59" t="s">
         <v>131</v>
@@ -4022,7 +4022,7 @@
         <v>350513.6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="58"/>
       <c r="B65" s="54" t="s">
         <v>132</v>
@@ -4061,7 +4061,7 @@
         <v>7589679.4000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="58"/>
       <c r="B66" s="65" t="s">
         <v>133</v>
@@ -4100,7 +4100,7 @@
         <v>13438700.1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="58"/>
       <c r="B67" s="54" t="s">
         <v>134</v>
@@ -4139,7 +4139,7 @@
         <v>118531.4</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="58"/>
       <c r="B68" s="54" t="s">
         <v>135</v>
@@ -4178,7 +4178,7 @@
         <v>167752.1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="58"/>
       <c r="B69" s="54" t="s">
         <v>136</v>
@@ -4217,7 +4217,7 @@
         <v>4239.8999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="58"/>
       <c r="B70" s="54" t="s">
         <v>137</v>
@@ -4256,7 +4256,7 @@
         <v>11169.7</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="58"/>
       <c r="B71" s="54" t="s">
         <v>138</v>
@@ -4295,7 +4295,7 @@
         <v>31405.1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="58"/>
       <c r="B72" s="54" t="s">
         <v>139</v>
@@ -4334,7 +4334,7 @@
         <v>6919.8</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="58"/>
       <c r="B73" s="54" t="s">
         <v>140</v>
@@ -4373,7 +4373,7 @@
         <v>239185.8</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="58"/>
       <c r="B74" s="54" t="s">
         <v>140</v>
@@ -4412,7 +4412,7 @@
         <v>95651.4</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="58"/>
       <c r="B75" s="54" t="s">
         <v>141</v>
@@ -4451,7 +4451,7 @@
         <v>5814.7</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="58"/>
       <c r="B76" s="69" t="s">
         <v>142</v>
@@ -4490,7 +4490,7 @@
         <v>707471.8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="58"/>
       <c r="B77" s="54" t="s">
         <v>143</v>
@@ -4529,7 +4529,7 @@
         <v>178686.9</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="58"/>
       <c r="B78" s="54" t="s">
         <v>143</v>
@@ -4568,7 +4568,7 @@
         <v>738923.9</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="58"/>
       <c r="B79" s="65" t="s">
         <v>144</v>
@@ -4607,7 +4607,7 @@
         <v>3676763.9</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="58"/>
       <c r="B80" s="54" t="s">
         <v>145</v>
@@ -4646,7 +4646,7 @@
         <v>67032.5</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="58"/>
       <c r="B81" s="54" t="s">
         <v>146</v>
@@ -4685,7 +4685,7 @@
         <v>1628224.2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="58"/>
       <c r="B82" s="54" t="s">
         <v>147</v>
@@ -4724,7 +4724,7 @@
         <v>387193.7</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="58"/>
       <c r="B83" s="54" t="s">
         <v>148</v>
@@ -4763,7 +4763,7 @@
         <v>11356249.699999999</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="58"/>
       <c r="B84" s="69" t="s">
         <v>149</v>
@@ -4802,7 +4802,7 @@
         <v>12894.1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="58"/>
       <c r="B85" s="73" t="s">
         <v>150</v>
@@ -4841,7 +4841,7 @@
         <v>16165.9</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="58"/>
       <c r="B86" s="54" t="s">
         <v>151</v>
@@ -4880,7 +4880,7 @@
         <v>197181</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="58"/>
       <c r="B87" s="54" t="s">
         <v>152</v>
@@ -4919,7 +4919,7 @@
         <v>1748797.4</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="58"/>
       <c r="B88" s="54" t="s">
         <v>153</v>
@@ -4958,7 +4958,7 @@
         <v>243786.7</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
       <c r="B89" s="54" t="s">
         <v>154</v>
@@ -4997,7 +4997,7 @@
         <v>7323107.5999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="58"/>
       <c r="B90" s="65" t="s">
         <v>155</v>
@@ -5036,7 +5036,7 @@
         <v>3889646.7</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="58"/>
       <c r="B91" s="54" t="s">
         <v>156</v>
@@ -5075,7 +5075,7 @@
         <v>27170.9</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="58"/>
       <c r="B92" s="54" t="s">
         <v>157</v>
@@ -5114,7 +5114,7 @@
         <v>75913.7</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="58"/>
       <c r="B93" s="54" t="s">
         <v>158</v>
@@ -5153,7 +5153,7 @@
         <v>3079.7</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="58"/>
       <c r="B94" s="54" t="s">
         <v>159</v>
@@ -5192,7 +5192,7 @@
         <v>59392.2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="58"/>
       <c r="B95" s="54" t="s">
         <v>160</v>
@@ -5231,7 +5231,7 @@
         <v>13035.2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="58"/>
       <c r="B96" s="54" t="s">
         <v>161</v>
@@ -5270,7 +5270,7 @@
         <v>215124.7</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="58"/>
       <c r="B97" s="69" t="s">
         <v>162</v>
@@ -5309,7 +5309,7 @@
         <v>59695.9</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="58"/>
       <c r="B98" s="65" t="s">
         <v>163</v>
@@ -5348,7 +5348,7 @@
         <v>324618.90000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="75"/>
       <c r="B99" s="76"/>
       <c r="C99" s="77"/>
@@ -5363,7 +5363,7 @@
       <c r="L99" s="77"/>
       <c r="M99" s="77"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>164</v>
       </c>
@@ -5379,7 +5379,7 @@
       <c r="L100" s="78"/>
       <c r="M100" s="78"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
@@ -5395,7 +5395,7 @@
       <c r="L101" s="78"/>
       <c r="M101" s="78"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
@@ -5411,7 +5411,7 @@
       <c r="L102" s="78"/>
       <c r="M102" s="78"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
@@ -5427,7 +5427,7 @@
       <c r="L103" s="78"/>
       <c r="M103" s="78"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>168</v>
       </c>
@@ -5443,7 +5443,7 @@
       <c r="L104" s="78"/>
       <c r="M104" s="78"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>169</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="L105" s="78"/>
       <c r="M105" s="78"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
       <c r="E106" s="78"/>
@@ -5472,7 +5472,7 @@
       <c r="L106" s="78"/>
       <c r="M106" s="78"/>
     </row>
-    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="79" t="s">
         <v>170</v>
       </c>
@@ -5488,7 +5488,7 @@
       <c r="L107" s="78"/>
       <c r="M107" s="78"/>
     </row>
-    <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="79"/>
       <c r="C108" s="78"/>
       <c r="D108" s="78"/>
@@ -5502,7 +5502,7 @@
       <c r="L108" s="78"/>
       <c r="M108" s="78"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>172</v>
       </c>
@@ -5518,7 +5518,7 @@
       <c r="L109" s="78"/>
       <c r="M109" s="78"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>173</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="L110" s="78"/>
       <c r="M110" s="78"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B111" s="81" t="s">
         <v>174</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="L111" s="78"/>
       <c r="M111" s="78"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
@@ -5566,7 +5566,7 @@
       <c r="L112" s="78"/>
       <c r="M112" s="78"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="78"/>
       <c r="D113" s="78"/>
@@ -5580,7 +5580,7 @@
       <c r="L113" s="78"/>
       <c r="M113" s="78"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="78"/>
       <c r="D114" s="78"/>
@@ -5596,11 +5596,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B2660D99-0115-4BFB-91B4-BF32C63CE85F}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{93351423-E7B4-4F85-96C9-343D1D26D1BB}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{78F83D08-3055-4E80-8C73-830B7E9139A7}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{9102C800-3F8C-47D5-9A44-2F81573BA59B}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{1B8AC06D-FE61-497B-A73A-D8060BBE4EAC}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{D527815E-C4EA-45CB-86AA-45FE162A0260}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{EFB1E09F-7A76-4517-841B-59A99C2A6308}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{BC8BC1F5-699A-4B33-841C-C5300C82FDD7}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{3AF5FBB9-09F5-456E-9B77-82B0ADEF15E0}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{3DFB5EE9-B993-446E-9789-DD5611CA11EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab25.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B1CA8C9-54C0-4743-B1B6-C4BF7CD6AD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0994054-704C-455D-880F-E6527BFEF5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{1C771940-6B61-400B-9772-9B31F705375B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57222B4E-5F83-4068-9996-FC7F83D78691}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab25" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="177">
   <si>
     <t>Tableau 25 : Émissions de GES par secteur</t>
   </si>
@@ -464,13 +464,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1451,7 +1457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECE4ECF-14A8-40DA-A904-5EB156A22DF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF6091A-D48E-46DB-931F-BF32B86C9860}">
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4409,7 +4415,7 @@
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="67"/>
       <c r="B74" s="63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C74" s="64">
         <v>268064.09999999998</v>
@@ -4448,7 +4454,7 @@
     <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="67"/>
       <c r="B75" s="63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C75" s="64">
         <v>25784.1</v>
@@ -4487,7 +4493,7 @@
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="67"/>
       <c r="B76" s="81" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C76" s="82">
         <v>1569200</v>
@@ -4526,7 +4532,7 @@
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="67"/>
       <c r="B77" s="63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C77" s="64">
         <v>885332.9</v>
@@ -4565,7 +4571,7 @@
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="67"/>
       <c r="B78" s="63" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C78" s="64">
         <v>2443698.7999999998</v>
@@ -4604,7 +4610,7 @@
     <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="67"/>
       <c r="B79" s="76" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C79" s="77">
         <v>10452167.9</v>
@@ -4643,7 +4649,7 @@
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="67"/>
       <c r="B80" s="63" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C80" s="64">
         <v>211076.5</v>
@@ -4682,7 +4688,7 @@
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="67"/>
       <c r="B81" s="63" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C81" s="64">
         <v>3759521.5</v>
@@ -4721,7 +4727,7 @@
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="67"/>
       <c r="B82" s="63" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C82" s="64">
         <v>1039600.2</v>
@@ -4760,7 +4766,7 @@
     <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="67"/>
       <c r="B83" s="63" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C83" s="64">
         <v>25975165.899999999</v>
@@ -4799,7 +4805,7 @@
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="67"/>
       <c r="B84" s="81" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C84" s="82">
         <v>103762.1</v>
@@ -4838,7 +4844,7 @@
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="67"/>
       <c r="B85" s="85" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C85" s="86">
         <v>91118.3</v>
@@ -4877,7 +4883,7 @@
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="67"/>
       <c r="B86" s="63" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C86" s="64">
         <v>693061.2</v>
@@ -4916,7 +4922,7 @@
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="67"/>
       <c r="B87" s="63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C87" s="64">
         <v>3899597.3</v>
@@ -4955,7 +4961,7 @@
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="67"/>
       <c r="B88" s="63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C88" s="64">
         <v>453254.6</v>
@@ -4994,7 +5000,7 @@
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="67"/>
       <c r="B89" s="63" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C89" s="64">
         <v>14924920.199999999</v>
@@ -5033,7 +5039,7 @@
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="67"/>
       <c r="B90" s="76" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C90" s="77">
         <v>10764438.199999999</v>
@@ -5072,7 +5078,7 @@
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="67"/>
       <c r="B91" s="63" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C91" s="64">
         <v>175354.2</v>
@@ -5111,7 +5117,7 @@
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="67"/>
       <c r="B92" s="63" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C92" s="64">
         <v>192030.2</v>
@@ -5150,7 +5156,7 @@
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="67"/>
       <c r="B93" s="63" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C93" s="64">
         <v>5789.1</v>
@@ -5189,7 +5195,7 @@
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="67"/>
       <c r="B94" s="63" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C94" s="64">
         <v>134730.29999999999</v>
@@ -5228,7 +5234,7 @@
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="67"/>
       <c r="B95" s="63" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C95" s="64">
         <v>84008.3</v>
@@ -5267,7 +5273,7 @@
     <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="67"/>
       <c r="B96" s="63" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C96" s="64">
         <v>537916.69999999995</v>
@@ -5306,7 +5312,7 @@
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="67"/>
       <c r="B97" s="81" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C97" s="82">
         <v>349509.3</v>
@@ -5345,7 +5351,7 @@
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="67"/>
       <c r="B98" s="76" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C98" s="77">
         <v>1119955.2</v>
@@ -5398,7 +5404,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C100" s="89"/>
       <c r="D100" s="89"/>
@@ -5414,7 +5420,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C101" s="89"/>
       <c r="D101" s="89"/>
@@ -5430,7 +5436,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C102" s="89"/>
       <c r="D102" s="89"/>
@@ -5446,7 +5452,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C103" s="89"/>
       <c r="D103" s="89"/>
@@ -5462,7 +5468,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C104" s="89"/>
       <c r="D104" s="89"/>
@@ -5478,7 +5484,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C105" s="89"/>
       <c r="D105" s="89"/>
@@ -5507,7 +5513,7 @@
     </row>
     <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="90" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C107" s="89"/>
       <c r="D107" s="89"/>
@@ -5537,7 +5543,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C109" s="89"/>
       <c r="D109" s="89"/>
@@ -5553,7 +5559,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C110" s="89"/>
       <c r="D110" s="89"/>
@@ -5569,7 +5575,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B111" s="91" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C111" s="89"/>
       <c r="D111" s="89"/>
@@ -5585,7 +5591,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B112" s="91" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C112" s="89"/>
       <c r="D112" s="89"/>
@@ -5629,11 +5635,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{69753572-5C72-4841-B2B4-A3FC00677914}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{987AB75D-F16C-4A6F-8217-9CFBBA426317}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{75E3BC12-E961-4E96-B902-7B086C2DB7B7}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{F7D4E5FF-675B-4CDD-B594-B16A1788A375}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{7969178A-976B-4391-A392-DEE626A2EF68}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{42870120-1542-4334-9443-C92E0883C410}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{53A8AF5D-3120-412F-8C64-FCAA24D2D473}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{2B84A265-A22C-41EC-B2B1-8B5B3FE6ABE1}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{865E3EC3-42A3-427C-834F-3430E13332AD}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{4D120193-FE3D-48E9-BCCF-9C2448F50B84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
